--- a/what/bencana/df_result_lda.xlsx
+++ b/what/bencana/df_result_lda.xlsx
@@ -494,7 +494,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['waspada', 'kencang', 'hujan_lebat', 'angin', 'bmkg', 'cuaca', 'berpotensi', 'petir', 'angin_kencang', 'jawa', 'lebat', 'semarang', 'hujan']</t>
+          <t>['hujan', 'cuaca', 'berpotensi', 'kencang', 'hujan_lebat', 'angin_kencang', 'petir', 'semarang', 'waspada', 'angin', 'lebat', 'bmkg', 'jawa']</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -551,7 +551,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['banjir', 'ketinggian', 'surut', 'bangunan', 'terdampak', 'hujan']</t>
+          <t>['bangunan', 'surut', 'hujan', 'banjir', 'ketinggian', 'terdampak']</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -609,7 +609,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['upaya', 'waspada', 'kendaraan', 'cuaca_ekstrem', 'membantu', 'penanganan', 'jakarta', 'terdampak', 'genangan', 'semarang', 'hujan']</t>
+          <t>['membantu', 'hujan', 'penanganan', 'semarang', 'terdampak', 'waspada', 'kendaraan', 'genangan', 'upaya', 'cuaca_ekstrem', 'jakarta']</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -677,7 +677,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['kedalaman', 'pusat_gempa', 'gempa_susulan', 'tsunami', 'kali', 'bmkg', 'jiwa', 'menyebut', 'magnitudo', 'gempa', 'gempa_bumi', 'jawa', 'terdampak', 'bpbd']</t>
+          <t>['bpbd', 'menyebut', 'magnitudo', 'pusat_gempa', 'jiwa', 'tsunami', 'gempa_bumi', 'kali', 'terdampak', 'gempa_susulan', 'gempa', 'kedalaman', 'bmkg', 'jawa']</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -737,7 +737,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['pantai', 'dibangun', 'lantai', 'lahan', 'pasar', 'pembangunan', 'tanah', 'sungai', 'gempa_bumi', 'pesisir', 'ditemukan', 'bangunan', 'mobil', 'gempa', 'jawa', 'sampah', 'pemerintah']</t>
+          <t>['pemerintah', 'mobil', 'tanah', 'bangunan', 'ditemukan', 'dibangun', 'sungai', 'gempa_bumi', 'sampah', 'pesisir', 'jawa', 'pantai', 'gempa', 'lahan', 'pembangunan', 'pasar', 'lantai']</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['terbakar', 'peristiwa', 'kebakaran', 'kapal']</t>
+          <t>['kebakaran', 'terbakar', 'kapal', 'peristiwa']</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['kedalaman', 'pusat_gempa', 'bmkg', 'jiwa', 'titik', 'magnitudo', 'gempa', 'gempa_bumi', 'getaran']</t>
+          <t>['magnitudo', 'pusat_gempa', 'jiwa', 'gempa_bumi', 'getaran', 'gempa', 'kedalaman', 'titik', 'bmkg']</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['pantai', 'laut', 'upaya', 'waspada', 'pohon', 'alam', 'tanah', 'cuaca_ekstrem', 'longsor', 'gelombang', 'pesisir', 'bpbd', 'pemerintah', 'kemarin', 'sampah', 'hujan']</t>
+          <t>['bpbd', 'kemarin', 'alam', 'tanah', 'hujan', 'pemerintah', 'laut', 'pohon', 'longsor', 'sampah', 'pesisir', 'waspada', 'gelombang', 'upaya', 'pantai', 'cuaca_ekstrem']</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -1214,7 +1214,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['banjir', 'sungai', 'kali', 'membantu', 'meluap', 'kemarin', 'hujan']</t>
+          <t>['membantu', 'kemarin', 'hujan', 'sungai', 'kali', 'banjir', 'meluap']</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['peristiwa', 'pasar', 'pembangunan', 'tanah', 'kendaraan', 'hujan']</t>
+          <t>['tanah', 'hujan', 'kendaraan', 'peristiwa', 'pembangunan', 'pasar']</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['lingkungan', 'jokowi', 'kegiatan', 'program', 'jakarta', 'pemerintah']</t>
+          <t>['pemerintah', 'kegiatan', 'program', 'jokowi', 'lingkungan', 'jakarta']</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['pantai', 'laut', 'lingkungan', 'kencang', 'terendam_banjir', 'banjir', 'angin', 'cuaca_ekstrem', 'surut', 'pesisir', 'terdampak', 'bpbd', 'angin_kencang', 'terdampak_banjir', 'kemarin', 'sampah', 'pemerintah']</t>
+          <t>['bpbd', 'kemarin', 'pemerintah', 'surut', 'banjir', 'laut', 'angin_kencang', 'sampah', 'terendam_banjir', 'angin', 'terdampak', 'lingkungan', 'terdampak_banjir', 'pesisir', 'pantai', 'kencang', 'cuaca_ekstrem']</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -1512,7 +1512,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['banjir', 'angin', 'bmkg', 'banjir_bandang', 'menyebut', 'berpotensi', 'lebat', 'hujan', 'waspada', 'sulsel', 'jakarta', 'angin_kencang', 'potensi', 'hujan_lebat', 'cuaca', 'cuaca_ekstrem', 'longsor', 'kencang', 'gelombang']</t>
+          <t>['menyebut', 'hujan', 'banjir', 'angin_kencang', 'sulsel', 'lebat', 'banjir_bandang', 'jakarta', 'cuaca', 'berpotensi', 'longsor', 'gelombang', 'cuaca_ekstrem', 'kencang', 'hujan_lebat', 'angin', 'waspada', 'potensi', 'bmkg']</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['terbakar', 'api', 'unit', 'kebakaran', 'bangunan', 'mobil', 'jakarta']</t>
+          <t>['bangunan', 'mobil', 'kebakaran', 'terbakar', 'api', 'jakarta', 'unit']</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1628,7 +1628,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['laut', 'potensi', 'pohon', 'pembangunan', 'hujan_lebat', 'banjir', 'angin', 'program', 'jakarta', 'bmkg', 'cuaca', 'cuaca_ekstrem', 'tumbang', 'jawa', 'lebat', 'bpbd', 'hujan']</t>
+          <t>['bpbd', 'hujan', 'cuaca', 'laut', 'banjir', 'pohon', 'program', 'hujan_lebat', 'angin', 'lebat', 'cuaca_ekstrem', 'potensi', 'jakarta', 'pembangunan', 'tumbang', 'jawa', 'bmkg']</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1698,7 +1698,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['alam', 'banjir', 'tsunami', 'titik', 'gempa', 'gempa_bumi', 'fenomena', 'banjir_rob']</t>
+          <t>['alam', 'banjir', 'tsunami', 'gempa_bumi', 'banjir_rob', 'fenomena', 'gempa', 'titik']</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['peristiwa', 'kemarin', 'hujan_lebat', 'banjir', 'sungai', 'kali', 'unit', 'jiwa', 'mobil', 'lebat', 'bpbd', 'hujan']</t>
+          <t>['bpbd', 'kemarin', 'mobil', 'hujan', 'jiwa', 'sungai', 'kali', 'banjir', 'hujan_lebat', 'lebat', 'peristiwa', 'unit']</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1823,7 +1823,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['pengungsi', 'cianjur', 'alam', 'bantuan', 'membantu', 'gempa', 'penanganan', 'terdampak', 'pemerintah']</t>
+          <t>['membantu', 'alam', 'pemerintah', 'cianjur', 'penanganan', 'terdampak', 'pengungsi', 'gempa', 'bantuan']</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1885,7 +1885,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['kedalaman', 'pusat_gempa', 'kali', 'bmkg', 'magnitudo', 'gempa', 'gempa_bumi', 'jawa', 'terdampak', 'getaran']</t>
+          <t>['magnitudo', 'pusat_gempa', 'kali', 'gempa_bumi', 'getaran', 'terdampak', 'gempa', 'kedalaman', 'bmkg', 'jawa']</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['mobil', 'kebakaran', 'polisi']</t>
+          <t>['kebakaran', 'mobil', 'polisi']</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -2030,7 +2030,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['kedalaman', 'laut', 'getaran', 'waspada', 'pusat_gempa', 'gempa_susulan', 'tsunami', 'bmkg', 'menyebut', 'gempa', 'berpotensi', 'bangunan', 'gempa_bumi', 'jawa', 'bpbd']</t>
+          <t>['bpbd', 'menyebut', 'bangunan', 'pusat_gempa', 'laut', 'tsunami', 'berpotensi', 'gempa_bumi', 'getaran', 'waspada', 'gempa_susulan', 'gempa', 'kedalaman', 'bmkg', 'jawa']</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -2097,7 +2097,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['lingkungan', 'kapal', 'kencang', 'angin', 'kali', 'unit', 'bmkg', 'cuaca', 'cuaca_ekstrem', 'gelombang', 'angin_kencang', 'jawa', 'kendaraan', 'hujan']</t>
+          <t>['hujan', 'cuaca', 'kali', 'kencang', 'angin_kencang', 'angin', 'gelombang', 'lingkungan', 'kendaraan', 'cuaca_ekstrem', 'bmkg', 'kapal', 'jawa', 'unit']</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -2239,7 +2239,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['upaya', 'genangan', 'banjir', 'sungai', 'cuaca', 'surut', 'menyebut', 'ketinggian', 'mobil', 'kemarin']</t>
+          <t>['menyebut', 'kemarin', 'mobil', 'surut', 'cuaca', 'sungai', 'banjir', 'ketinggian', 'genangan', 'upaya']</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -2306,7 +2306,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['arah', 'terendam_banjir', 'banjir', 'cuaca', 'surut', 'semarang', 'jawa', 'genangan', 'kendaraan']</t>
+          <t>['surut', 'cuaca', 'banjir', 'terendam_banjir', 'semarang', 'arah', 'kendaraan', 'genangan', 'jawa']</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -2368,7 +2368,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['lingkungan', 'peristiwa', 'luka', 'pohon', 'makassar', 'sungai', 'kebakaran', 'menyebut', 'tumbang', 'pemerintah', 'pohon_tumbang']</t>
+          <t>['luka', 'menyebut', 'pohon_tumbang', 'pemerintah', 'sungai', 'pohon', 'lingkungan', 'kebakaran', 'peristiwa', 'makassar', 'tumbang']</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -2433,7 +2433,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['angin_kencang', 'damkar', 'luka', 'kencang', 'pohon', 'atap', 'angin', 'pohon_tumbang', 'penanganan', 'tumbang', 'makassar', 'hujan']</t>
+          <t>['luka', 'damkar', 'pohon_tumbang', 'hujan', 'penanganan', 'pohon', 'angin_kencang', 'angin', 'atap', 'makassar', 'tumbang', 'kencang']</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -2493,7 +2493,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['laut', 'potensi', 'rob', 'waspada', 'banjir', 'dki_jakarta', 'cuaca_ekstrem', 'pesisir', 'bpbd_dki', 'ketinggian', 'jakarta', 'banjir_rob', 'bpbd']</t>
+          <t>['bpbd', 'rob', 'banjir', 'laut', 'bpbd_dki', 'ketinggian', 'waspada', 'dki_jakarta', 'banjir_rob', 'pesisir', 'cuaca_ekstrem', 'potensi', 'jakarta']</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -2550,7 +2550,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['upaya', 'lahan', 'cianjur', 'gempa_susulan', 'luka', 'kali', 'bmkg', 'jiwa', 'longsor', 'titik', 'ditemukan', 'magnitudo', 'gempa_bumi', 'gempa', 'jawa', 'terdampak', 'pemerintah']</t>
+          <t>['luka', 'pemerintah', 'magnitudo', 'cianjur', 'jiwa', 'ditemukan', 'gempa_bumi', 'longsor', 'kali', 'terdampak', 'gempa_susulan', 'upaya', 'gempa', 'lahan', 'titik', 'jawa', 'bmkg']</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -2625,7 +2625,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['upaya', 'cianjur', 'tanah', 'program', 'bantuan', 'menyebut', 'gempa_bumi', 'gempa', 'bangunan', 'penanganan', 'jawa', 'terdampak']</t>
+          <t>['menyebut', 'cianjur', 'tanah', 'bangunan', 'penanganan', 'gempa_bumi', 'program', 'terdampak', 'upaya', 'gempa', 'jawa', 'bantuan']</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -2690,7 +2690,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['ketinggian', 'penanganan', 'kebakaran', 'kendaraan']</t>
+          <t>['kebakaran', 'ketinggian', 'kendaraan', 'penanganan']</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -2755,7 +2755,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['hujan', 'laut', 'waspada', 'peristiwa', 'alam', 'banjir', 'angin', 'kali', 'cuaca', 'banjir_bandang', 'longsor', 'fenomena', 'bpbd', 'pemerintah']</t>
+          <t>['bpbd', 'alam', 'pemerintah', 'hujan', 'cuaca', 'laut', 'kali', 'longsor', 'banjir', 'angin', 'waspada', 'peristiwa', 'fenomena', 'banjir_bandang']</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -2828,7 +2828,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['pengungsi', 'banjir', 'sungai', 'cuaca', 'cuaca_ekstrem', 'penanganan', 'jawa', 'kemarin', 'semarang']</t>
+          <t>['kemarin', 'sungai', 'cuaca', 'banjir', 'penanganan', 'semarang', 'pengungsi', 'cuaca_ekstrem', 'jawa']</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['peristiwa', 'kencang', 'pohon', 'angin', 'pohon_tumbang', 'jakarta', 'kebakaran', 'menyebut', 'tumbang', 'hujan']</t>
+          <t>['menyebut', 'pohon_tumbang', 'hujan', 'pohon', 'angin', 'kebakaran', 'peristiwa', 'jakarta', 'tumbang', 'kencang']</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -2961,7 +2961,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['banjir_rob', 'laut', 'potensi', 'waspada', 'rob', 'hujan_lebat', 'banjir', 'dki_jakarta', 'angin', 'bmkg', 'cuaca', 'bangunan', 'jakarta', 'jawa', 'lebat', 'hujan']</t>
+          <t>['rob', 'bangunan', 'hujan', 'cuaca', 'laut', 'banjir', 'hujan_lebat', 'angin', 'waspada', 'dki_jakarta', 'lebat', 'banjir_rob', 'potensi', 'jakarta', 'bmkg', 'jawa']</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -3061,7 +3061,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['genangan', 'laut', 'waspada', 'kemarin', 'fenomena', 'hujan_lebat', 'banjir', 'angin', 'bmkg', 'jawa', 'lebat', 'hujan']</t>
+          <t>['kemarin', 'hujan', 'banjir', 'laut', 'hujan_lebat', 'angin', 'waspada', 'lebat', 'genangan', 'fenomena', 'bmkg', 'jawa']</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -3126,7 +3126,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['laut', 'kali', 'bmkg', 'gempa', 'magnitudo', 'bangunan', 'gempa_bumi', 'getaran']</t>
+          <t>['magnitudo', 'bangunan', 'kali', 'laut', 'gempa_bumi', 'getaran', 'gempa', 'bmkg']</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -3195,7 +3195,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['damkar', 'terbakar', 'peristiwa', 'unit', 'kebakaran', 'menyebut', 'jiwa', 'mobil', 'api', 'penanganan', 'jakarta', 'kendaraan']</t>
+          <t>['menyebut', 'damkar', 'mobil', 'jiwa', 'penanganan', 'kebakaran', 'terbakar', 'kendaraan', 'peristiwa', 'api', 'jakarta', 'unit']</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -3310,7 +3310,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['angin', 'terdampak', 'pohon_tumbang', 'hujan', 'waspada', 'peristiwa', 'pohon', 'kali', 'angin_kencang', 'tumbang', 'potensi', 'alam', 'longsor', 'jiwa', 'titik', 'kemarin', 'kencang', 'gelombang', 'bpbd']</t>
+          <t>['hujan', 'angin_kencang', 'pohon', 'peristiwa', 'alam', 'terdampak', 'tumbang', 'pohon_tumbang', 'kali', 'longsor', 'gelombang', 'titik', 'kencang', 'bpbd', 'kemarin', 'jiwa', 'angin', 'waspada', 'potensi']</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -3368,7 +3368,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['pantai', 'laut', 'lingkungan', 'banjir', 'angin', 'cuaca_ekstrem', 'surut', 'pesisir', 'kemarin', 'sampah', 'pemerintah']</t>
+          <t>['kemarin', 'pemerintah', 'surut', 'banjir', 'laut', 'sampah', 'angin', 'lingkungan', 'pesisir', 'pantai', 'cuaca_ekstrem']</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -3428,7 +3428,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['waspada', 'kencang', 'angin', 'bmkg', 'cuaca', 'petir', 'angin_kencang', 'lebat', 'hujan']</t>
+          <t>['hujan', 'cuaca', 'angin_kencang', 'petir', 'waspada', 'angin', 'lebat', 'bmkg', 'kencang']</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -3490,7 +3490,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['mengungsi', 'cianjur', 'kali', 'longsor', 'titik', 'magnitudo', 'ditemukan', 'bangunan', 'gempa_bumi', 'gempa']</t>
+          <t>['magnitudo', 'cianjur', 'bangunan', 'kali', 'ditemukan', 'gempa_bumi', 'longsor', 'mengungsi', 'gempa', 'titik']</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -3548,7 +3548,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['hujan', 'peristiwa', 'kencang', 'atap', 'tanah', 'angin', 'bantuan', 'jakarta', 'membantu', 'bangunan', 'angin_kencang', 'kemarin', 'pemerintah']</t>
+          <t>['membantu', 'kemarin', 'pemerintah', 'tanah', 'hujan', 'bangunan', 'angin_kencang', 'angin', 'atap', 'peristiwa', 'jakarta', 'kencang', 'bantuan']</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -3613,7 +3613,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['pantai', 'rob', 'kencang', 'tanah', 'banjir', 'angin', 'kali', 'surut', 'gelombang', 'titik', 'ketinggian', 'semarang', 'hujan']</t>
+          <t>['rob', 'tanah', 'hujan', 'surut', 'kali', 'banjir', 'ketinggian', 'angin', 'semarang', 'gelombang', 'pantai', 'titik', 'kencang']</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -3678,7 +3678,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['mengungsi', 'terbakar', 'api', 'unit', 'bantuan', 'kebakaran', 'jiwa', 'pelaku', 'polisi', 'bangunan', 'kendaraan']</t>
+          <t>['unit', 'bangunan', 'jiwa', 'polisi', 'pelaku', 'kebakaran', 'terbakar', 'mengungsi', 'kendaraan', 'api', 'bantuan']</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -3746,7 +3746,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>['sungai', 'unit', 'jiwa', 'longsor', 'titik', 'ditemukan', 'bangunan', 'makassar', 'bpbd']</t>
+          <t>['bpbd', 'bangunan', 'jiwa', 'sungai', 'ditemukan', 'longsor', 'makassar', 'titik', 'unit']</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -3810,7 +3810,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>['waspada', 'kencang', 'hujan_lebat', 'banjir', 'angin', 'bmkg', 'cuaca', 'longsor', 'berpotensi', 'petir', 'angin_kencang', 'jawa', 'lebat', 'semarang', 'hujan']</t>
+          <t>['hujan', 'cuaca', 'banjir', 'berpotensi', 'kencang', 'hujan_lebat', 'angin_kencang', 'petir', 'semarang', 'waspada', 'longsor', 'angin', 'lebat', 'bmkg', 'jawa']</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -3867,7 +3867,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['damkar', 'terbakar', 'api', 'pasar', 'pembangunan', 'kios', 'kebakaran', 'polisi', 'bangunan', 'mobil', 'jawa', 'bpbd']</t>
+          <t>['bpbd', 'damkar', 'kios', 'mobil', 'bangunan', 'polisi', 'kebakaran', 'terbakar', 'api', 'pembangunan', 'jawa', 'pasar']</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -3938,7 +3938,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['luka', 'alam', 'longsor', 'menyebut', 'berpotensi', 'titik', 'tumbang', 'kendaraan', 'pohon_tumbang']</t>
+          <t>['luka', 'menyebut', 'pohon_tumbang', 'alam', 'berpotensi', 'longsor', 'titik', 'kendaraan', 'tumbang']</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -4015,7 +4015,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>['bmkg', 'menyebut', 'bangunan', 'gempa', 'pemerintah', 'laut', 'peristiwa', 'bandung', 'kali', 'unit', 'titik', 'polisi', 'magnitudo', 'kedalaman', 'pusat_gempa', 'cianjur', 'luka', 'pelaku', 'gempa_bumi', 'jawa']</t>
+          <t>['menyebut', 'bangunan', 'pelaku', 'peristiwa', 'laut', 'bandung', 'jawa', 'unit', 'luka', 'magnitudo', 'pusat_gempa', 'kali', 'gempa_bumi', 'gempa', 'kedalaman', 'titik', 'pemerintah', 'cianjur', 'polisi', 'bmkg']</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -4147,7 +4147,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>['damkar', 'dki_jakarta', 'unit', 'bantuan', 'kebakaran', 'menyebut', 'jiwa', 'jakarta', 'terdampak']</t>
+          <t>['unit', 'menyebut', 'damkar', 'jiwa', 'terdampak', 'kebakaran', 'dki_jakarta', 'jakarta', 'bantuan']</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -4202,7 +4202,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['kedalaman', 'dibangun', 'tanah', 'banjir', 'proyek', 'cuaca', 'longsor', 'hujan']</t>
+          <t>['tanah', 'hujan', 'cuaca', 'banjir', 'dibangun', 'longsor', 'proyek', 'kedalaman']</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -4257,7 +4257,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['banjir', 'titik', 'polisi', 'bpbd_dki', 'ketinggian', 'jakarta', 'genangan', 'kendaraan', 'hujan']</t>
+          <t>['hujan', 'banjir', 'bpbd_dki', 'ketinggian', 'polisi', 'kendaraan', 'genangan', 'jakarta', 'titik']</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -4323,7 +4323,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>['membantu', 'tumbang', 'genangan', 'kendaraan', 'hujan']</t>
+          <t>['membantu', 'hujan', 'kendaraan', 'genangan', 'tumbang']</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -4373,7 +4373,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['mengungsi', 'pengungsi', 'makassar', 'terendam_banjir', 'banjir', 'kali', 'menyebut', 'terdampak', 'titik', 'terdampak_banjir', 'bpbd']</t>
+          <t>['bpbd', 'menyebut', 'banjir', 'kali', 'terendam_banjir', 'terdampak', 'pengungsi', 'terdampak_banjir', 'mengungsi', 'makassar', 'titik']</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -4442,7 +4442,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>['kedalaman', 'laut', 'getaran', 'pusat_gempa', 'gempa_susulan', 'arah', 'kali', 'bmkg', 'titik', 'magnitudo', 'gempa', 'bangunan', 'gempa_bumi', 'kemarin', 'bpbd']</t>
+          <t>['bpbd', 'kemarin', 'magnitudo', 'bangunan', 'pusat_gempa', 'laut', 'gempa_bumi', 'getaran', 'kali', 'arah', 'gempa_susulan', 'gempa', 'kedalaman', 'titik', 'bmkg']</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['peristiwa', 'kencang', 'pohon', 'atap', 'angin', 'proyek', 'menyebut', 'bangunan', 'angin_kencang', 'fenomena', 'kendaraan']</t>
+          <t>['menyebut', 'bangunan', 'pohon', 'angin_kencang', 'proyek', 'angin', 'atap', 'kendaraan', 'peristiwa', 'fenomena', 'kencang']</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -4638,7 +4638,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>['kedalaman', 'kali', 'bmkg', 'titik', 'gempa']</t>
+          <t>['kali', 'gempa', 'kedalaman', 'titik', 'bmkg']</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -4689,7 +4689,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['angin', 'menyebut', 'berpotensi', 'terdampak', 'lebat', 'pohon_tumbang', 'hujan', 'laut', 'waspada', 'pohon', 'jakarta', 'tumbang', 'potensi', 'arah', 'hujan_lebat', 'cuaca_ekstrem', 'cuaca', 'kebakaran', 'kencang', 'jawa', 'bpbd']</t>
+          <t>['menyebut', 'hujan', 'pohon', 'arah', 'lebat', 'laut', 'terdampak', 'kebakaran', 'jakarta', 'tumbang', 'jawa', 'pohon_tumbang', 'cuaca', 'berpotensi', 'cuaca_ekstrem', 'kencang', 'bpbd', 'hujan_lebat', 'angin', 'waspada', 'potensi']</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -4773,7 +4773,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>['banjir', 'angin', 'bmkg', 'pesisir', 'ketinggian', 'terdampak', 'terdampak_banjir', 'laut', 'rob', 'waspada', 'kapal', 'kali', 'arah', 'cuaca', 'cuaca_ekstrem', 'banjir_rob', 'gelombang', 'jawa', 'tanggal']</t>
+          <t>['banjir', 'arah', 'banjir_rob', 'laut', 'ketinggian', 'terdampak', 'kapal', 'jawa', 'rob', 'cuaca', 'kali', 'gelombang', 'terdampak_banjir', 'cuaca_ekstrem', 'angin', 'tanggal', 'waspada', 'pesisir', 'bmkg']</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -4853,7 +4853,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>['kapal', 'kencang', 'angin', 'cuaca', 'cuaca_ekstrem', 'menyebut', 'gelombang', 'angin_kencang', 'kemarin', 'kendaraan']</t>
+          <t>['menyebut', 'kemarin', 'cuaca', 'angin_kencang', 'angin', 'gelombang', 'kendaraan', 'cuaca_ekstrem', 'kapal', 'kencang']</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -4913,7 +4913,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>['mengungsi', 'damkar', 'upaya', 'terbakar', 'lantai', 'pengungsi', 'unit', 'bantuan', 'mobil', 'kebakaran', 'jiwa', 'api', 'penanganan', 'jakarta', 'terdampak']</t>
+          <t>['unit', 'damkar', 'mobil', 'jiwa', 'penanganan', 'terdampak', 'pengungsi', 'kebakaran', 'terbakar', 'mengungsi', 'api', 'upaya', 'jakarta', 'bantuan', 'lantai']</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -5002,7 +5002,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>['jokowi', 'pembangunan', 'alam', 'banjir', 'kali', 'longsor', 'gempa', 'gempa_bumi']</t>
+          <t>['alam', 'banjir', 'kali', 'gempa_bumi', 'longsor', 'jokowi', 'gempa', 'pembangunan']</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -5076,7 +5076,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>['lingkungan', 'kedalaman', 'pusat_gempa', 'bmkg', 'magnitudo', 'gempa', 'gempa_bumi', 'getaran']</t>
+          <t>['magnitudo', 'pusat_gempa', 'gempa_bumi', 'getaran', 'lingkungan', 'gempa', 'kedalaman', 'bmkg']</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -5126,7 +5126,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>['kedalaman', 'laut', 'pusat_gempa', 'alam', 'tsunami', 'bmkg', 'gelombang', 'berpotensi', 'titik', 'bangunan', 'gempa', 'jakarta']</t>
+          <t>['alam', 'kedalaman', 'bangunan', 'pusat_gempa', 'tsunami', 'laut', 'berpotensi', 'gelombang', 'gempa', 'jakarta', 'titik', 'bmkg']</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -5196,7 +5196,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>['banjir', 'membantu', 'jawa', 'terdampak_banjir', 'bpbd', 'hujan']</t>
+          <t>['bpbd', 'membantu', 'hujan', 'banjir', 'terdampak_banjir', 'jawa']</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -5250,7 +5250,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>['jokowi', 'pembangunan', 'tanah', 'banjir', 'proyek', 'bendungan', 'jawa', 'genangan', 'hujan']</t>
+          <t>['tanah', 'hujan', 'banjir', 'jokowi', 'proyek', 'bendungan', 'genangan', 'pembangunan', 'jawa']</t>
         </is>
       </c>
       <c r="F69" t="n">
@@ -5346,7 +5346,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>['kedalaman', 'laut', 'pusat_gempa', 'bmkg', 'magnitudo', 'gempa', 'gempa_bumi', 'getaran']</t>
+          <t>['magnitudo', 'pusat_gempa', 'laut', 'gempa_bumi', 'getaran', 'gempa', 'kedalaman', 'bmkg']</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -5403,7 +5403,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['pantai', 'laut', 'damkar', 'kencang', 'banjir', 'angin', 'cuaca', 'surut', 'pesisir', 'angin_kencang', 'jawa', 'terdampak', 'bpbd']</t>
+          <t>['bpbd', 'damkar', 'surut', 'cuaca', 'laut', 'banjir', 'kencang', 'angin_kencang', 'angin', 'terdampak', 'pesisir', 'pantai', 'jawa']</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -5459,7 +5459,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>['kedalaman', 'laut', 'pusat_gempa', 'bmkg', 'jiwa', 'titik', 'magnitudo', 'gempa', 'gempa_bumi']</t>
+          <t>['magnitudo', 'pusat_gempa', 'jiwa', 'laut', 'gempa_bumi', 'gempa', 'kedalaman', 'titik', 'bmkg']</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -5507,7 +5507,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['lantai', 'banjir', 'sungai', 'penanganan', 'genangan', 'bpbd', 'hujan']</t>
+          <t>['bpbd', 'sungai', 'hujan', 'banjir', 'penanganan', 'genangan', 'lantai']</t>
         </is>
       </c>
       <c r="F73" t="n">
@@ -5564,7 +5564,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>['kedalaman', 'pusat_gempa', 'tsunami', 'bmkg', 'berpotensi', 'magnitudo', 'gempa', 'gempa_bumi', 'jakarta', 'jawa']</t>
+          <t>['magnitudo', 'kedalaman', 'pusat_gempa', 'tsunami', 'gempa_bumi', 'berpotensi', 'gempa', 'jakarta', 'bmkg', 'jawa']</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -5610,7 +5610,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>['kedalaman', 'laut', 'tsunami', 'bmkg', 'magnitudo', 'berpotensi', 'gempa', 'getaran']</t>
+          <t>['magnitudo', 'tsunami', 'laut', 'berpotensi', 'getaran', 'gempa', 'kedalaman', 'bmkg']</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -5660,7 +5660,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>['peristiwa', 'luka', 'banjir', 'sungai', 'kendaraan', 'sulsel', 'banjir_bandang', 'longsor', 'menyebut', 'titik', 'meluap', 'terdampak', 'bpbd', 'pemerintah']</t>
+          <t>['bpbd', 'menyebut', 'luka', 'pemerintah', 'sungai', 'banjir', 'longsor', 'terdampak', 'sulsel', 'meluap', 'kendaraan', 'peristiwa', 'banjir_bandang', 'titik']</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -5724,7 +5724,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>['banjir_rob', 'laut', 'rob', 'hujan_lebat', 'banjir', 'ketinggian', 'mobil', 'lebat', 'semarang', 'hujan']</t>
+          <t>['rob', 'mobil', 'hujan', 'banjir', 'laut', 'ketinggian', 'hujan_lebat', 'semarang', 'lebat', 'banjir_rob']</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -5781,7 +5781,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>['mengungsi', 'jokowi', 'peristiwa', 'cianjur', 'kegiatan', 'unit', 'bantuan', 'gempa_bumi', 'membantu', 'magnitudo', 'gempa', 'mobil', 'jakarta', 'jawa', 'terdampak', 'pemerintah']</t>
+          <t>['membantu', 'unit', 'pemerintah', 'mobil', 'magnitudo', 'cianjur', 'gempa_bumi', 'kegiatan', 'jokowi', 'terdampak', 'mengungsi', 'peristiwa', 'gempa', 'jakarta', 'jawa', 'bantuan']</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -5872,7 +5872,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>['potensi', 'kencang', 'hujan_lebat', 'atap', 'angin', 'bmkg', 'menyebut', 'berpotensi', 'petir', 'angin_kencang', 'fenomena', 'lebat', 'hujan']</t>
+          <t>['menyebut', 'hujan', 'berpotensi', 'angin_kencang', 'hujan_lebat', 'petir', 'angin', 'atap', 'lebat', 'fenomena', 'potensi', 'bmkg', 'kencang']</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -5930,7 +5930,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>['kencang', 'pohon', 'arah', 'alam', 'angin', 'pohon_tumbang', 'tumbang', 'bpbd', 'hujan']</t>
+          <t>['bpbd', 'alam', 'pohon_tumbang', 'hujan', 'pohon', 'angin', 'arah', 'tumbang', 'kencang']</t>
         </is>
       </c>
       <c r="F80" t="n">
@@ -5980,7 +5980,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['dibangun', 'terbakar', 'pasar', 'pembangunan', 'kios', 'kegiatan', 'unit', 'kebakaran', 'menyebut', 'terdampak', 'api', 'makassar', 'sampah']</t>
+          <t>['menyebut', 'kios', 'dibangun', 'kegiatan', 'sampah', 'terdampak', 'kebakaran', 'terbakar', 'api', 'makassar', 'pembangunan', 'unit', 'pasar']</t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -6091,7 +6091,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>['luka', 'pembangunan', 'banjir', 'berpotensi', 'bangunan', 'kendaraan', 'pemerintah']</t>
+          <t>['luka', 'pemerintah', 'bangunan', 'banjir', 'berpotensi', 'kendaraan', 'pembangunan']</t>
         </is>
       </c>
       <c r="F82" t="n">
@@ -6285,7 +6285,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['hujan', 'genangan', 'potensi', 'api', 'pohon', 'terendam_banjir', 'banjir', 'kereta', 'sungai', 'kali', 'tanah', 'ketinggian', 'longsor', 'bpbd', 'kemarin', 'sampah', 'pemerintah']</t>
+          <t>['bpbd', 'kemarin', 'pemerintah', 'tanah', 'hujan', 'sungai', 'kali', 'banjir', 'pohon', 'ketinggian', 'longsor', 'terendam_banjir', 'sampah', 'genangan', 'api', 'kereta', 'potensi']</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -6366,7 +6366,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>['banjir', 'kereta', 'banjir_bandang', 'menyebut', 'hujan', 'peristiwa', 'bandung', 'kali', 'mobil', 'jakarta', 'kendaraan', 'arah', 'sungai', 'longsor', 'jiwa', 'polisi', 'ditemukan', 'lahan', 'kemarin', 'pengungsi', 'luka', 'proyek', 'pelaku', 'penanganan', 'jawa', 'bpbd']</t>
+          <t>['menyebut', 'hujan', 'banjir', 'penanganan', 'arah', 'pelaku', 'peristiwa', 'kereta', 'mobil', 'ditemukan', 'bandung', 'proyek', 'banjir_bandang', 'jakarta', 'jawa', 'luka', 'sungai', 'kali', 'longsor', 'kendaraan', 'lahan', 'bpbd', 'kemarin', 'jiwa', 'polisi', 'pengungsi']</t>
         </is>
       </c>
       <c r="F85" t="n">
@@ -6535,7 +6535,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>['kedalaman', 'pusat_gempa', 'bmkg', 'magnitudo', 'gempa', 'gempa_bumi', 'jawa']</t>
+          <t>['magnitudo', 'pusat_gempa', 'gempa_bumi', 'gempa', 'kedalaman', 'bmkg', 'jawa']</t>
         </is>
       </c>
       <c r="F86" t="n">
@@ -6580,7 +6580,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>['jokowi', 'cianjur', 'pembangunan', 'kali', 'bantuan', 'gempa_bumi', 'titik', 'gempa', 'bangunan', 'penanganan', 'jakarta', 'jawa', 'terdampak']</t>
+          <t>['cianjur', 'bangunan', 'kali', 'penanganan', 'gempa_bumi', 'jokowi', 'terdampak', 'gempa', 'jakarta', 'pembangunan', 'titik', 'jawa', 'bantuan']</t>
         </is>
       </c>
       <c r="F87" t="n">
@@ -6635,7 +6635,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>['pantai', 'laut', 'banjir', 'surut', 'menyebut', 'titik', 'ketinggian', 'mobil', 'semarang']</t>
+          <t>['menyebut', 'mobil', 'surut', 'banjir', 'laut', 'ketinggian', 'semarang', 'pantai', 'titik']</t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -6707,7 +6707,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>['peristiwa', 'pengungsi', 'alam', 'banjir', 'banjir_bandang', 'jiwa', 'terdampak_banjir', 'bpbd', 'hujan']</t>
+          <t>['bpbd', 'alam', 'jiwa', 'hujan', 'banjir', 'pengungsi', 'terdampak_banjir', 'peristiwa', 'banjir_bandang']</t>
         </is>
       </c>
       <c r="F89" t="n">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>['peristiwa', 'cianjur', 'jiwa', 'magnitudo', 'ditemukan', 'gempa', 'gempa_bumi', 'pemerintah']</t>
+          <t>['pemerintah', 'magnitudo', 'cianjur', 'jiwa', 'ditemukan', 'gempa_bumi', 'peristiwa', 'gempa']</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -6820,7 +6820,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>['bandung', 'pasar', 'arah', 'banjir', 'genangan', 'kendaraan']</t>
+          <t>['banjir', 'bandung', 'arah', 'kendaraan', 'genangan', 'pasar']</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -6873,7 +6873,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>['mengungsi', 'damkar', 'kedalaman', 'lantai', 'terendam_banjir', 'banjir', 'sungai', 'program', 'kali', 'bendungan', 'penanganan', 'meluap', 'bpbd', 'hujan']</t>
+          <t>['bpbd', 'damkar', 'hujan', 'sungai', 'kali', 'penanganan', 'banjir', 'program', 'terendam_banjir', 'bendungan', 'meluap', 'mengungsi', 'kedalaman', 'lantai']</t>
         </is>
       </c>
       <c r="F92" t="n">
@@ -6931,7 +6931,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>['kapal', 'kencang', 'hujan_lebat', 'angin', 'cuaca', 'petir', 'angin_kencang', 'lebat', 'hujan']</t>
+          <t>['hujan', 'cuaca', 'angin_kencang', 'hujan_lebat', 'petir', 'angin', 'lebat', 'kapal', 'kencang']</t>
         </is>
       </c>
       <c r="F93" t="n">
@@ -6990,7 +6990,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>['potensi', 'waspada', 'pasar', 'tanah', 'dki_jakarta', 'sungai', 'bmkg', 'bpbd_dki', 'jakarta', 'bpbd', 'hujan']</t>
+          <t>['bpbd', 'tanah', 'hujan', 'sungai', 'bpbd_dki', 'waspada', 'dki_jakarta', 'potensi', 'jakarta', 'bmkg', 'pasar']</t>
         </is>
       </c>
       <c r="F94" t="n">
@@ -7058,7 +7058,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>['api', 'cuaca', 'kebakaran', 'damkar']</t>
+          <t>['cuaca', 'damkar', 'kebakaran', 'api']</t>
         </is>
       </c>
       <c r="F95" t="n">
@@ -7109,7 +7109,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>['angin', 'petir', 'terdampak', 'hujan', 'mengungsi', 'pemerintah', 'peristiwa', 'sekolah', 'kali', 'jakarta', 'angin_kencang', 'lantai', 'arah', 'unit', 'cuaca', 'kebakaran', 'jiwa', 'kemarin', 'terbakar', 'kencang', 'bantuan', 'bpbd_dki', 'api']</t>
+          <t>['hujan', 'angin_kencang', 'bpbd_dki', 'arah', 'sekolah', 'peristiwa', 'petir', 'terdampak', 'kebakaran', 'api', 'jakarta', 'unit', 'lantai', 'cuaca', 'kali', 'terbakar', 'kencang', 'kemarin', 'pemerintah', 'jiwa', 'angin', 'mengungsi', 'bantuan']</t>
         </is>
       </c>
       <c r="F96" t="n">
@@ -7269,7 +7269,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>['laut', 'arah', 'sekolah', 'banjir', 'dki_jakarta', 'kali', 'titik', 'mobil', 'jakarta', 'genangan', 'kendaraan', 'hujan']</t>
+          <t>['mobil', 'hujan', 'banjir', 'laut', 'kali', 'arah', 'dki_jakarta', 'sekolah', 'kendaraan', 'genangan', 'jakarta', 'titik']</t>
         </is>
       </c>
       <c r="F97" t="n">
@@ -7324,7 +7324,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>['upaya', 'cianjur', 'alam', 'gempa_bumi', 'membantu', 'gempa', 'penanganan', 'jakarta']</t>
+          <t>['membantu', 'alam', 'cianjur', 'penanganan', 'gempa_bumi', 'upaya', 'gempa', 'jakarta']</t>
         </is>
       </c>
       <c r="F98" t="n">
@@ -7390,7 +7390,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>['waspada', 'banjir', 'sungai', 'jiwa', 'jawa', 'kemarin', 'bpbd', 'hujan']</t>
+          <t>['bpbd', 'kemarin', 'jiwa', 'hujan', 'sungai', 'banjir', 'waspada', 'jawa']</t>
         </is>
       </c>
       <c r="F99" t="n">
@@ -7465,7 +7465,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>['tanah', 'banjir', 'menyebut', 'mobil', 'makassar', 'hujan']</t>
+          <t>['menyebut', 'tanah', 'hujan', 'banjir', 'mobil', 'makassar']</t>
         </is>
       </c>
       <c r="F100" t="n">
@@ -7535,7 +7535,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>['pantai', 'genangan', 'tanggal', 'pembangunan', 'banjir', 'proyek', 'tsunami', 'cuaca', 'kemarin', 'hujan']</t>
+          <t>['kemarin', 'hujan', 'cuaca', 'tsunami', 'banjir', 'proyek', 'tanggal', 'genangan', 'pantai', 'pembangunan']</t>
         </is>
       </c>
       <c r="F101" t="n">
@@ -7612,7 +7612,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>['terbakar', 'peristiwa', 'api', 'alam', 'kebakaran', 'ketinggian', 'jawa', 'makassar']</t>
+          <t>['alam', 'ketinggian', 'kebakaran', 'terbakar', 'peristiwa', 'api', 'makassar', 'jawa']</t>
         </is>
       </c>
       <c r="F102" t="n">
@@ -7780,7 +7780,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>['peristiwa', 'angin', 'unit', 'kebakaran', 'polisi', 'api', 'mobil', 'jawa']</t>
+          <t>['mobil', 'polisi', 'angin', 'kebakaran', 'peristiwa', 'api', 'jawa', 'unit']</t>
         </is>
       </c>
       <c r="F103" t="n">
@@ -7835,7 +7835,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>['pantai', 'laut', 'rob', 'banjir', 'bantuan', 'surut', 'titik', 'terdampak', 'penanganan', 'terdampak_banjir', 'banjir_rob', 'bpbd']</t>
+          <t>['bpbd', 'rob', 'surut', 'banjir', 'laut', 'penanganan', 'terdampak', 'terdampak_banjir', 'banjir_rob', 'pantai', 'titik', 'bantuan']</t>
         </is>
       </c>
       <c r="F104" t="n">
@@ -7892,7 +7892,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>['mengungsi', 'tanah', 'longsor', 'jiwa', 'bangunan', 'jawa', 'bpbd', 'hujan']</t>
+          <t>['bpbd', 'tanah', 'jiwa', 'hujan', 'bangunan', 'longsor', 'mengungsi', 'jawa']</t>
         </is>
       </c>
       <c r="F105" t="n">
@@ -7949,7 +7949,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>['waspada', 'peristiwa', 'kencang', 'atap', 'angin', 'unit', 'bmkg', 'jiwa', 'menyebut', 'angin_kencang', 'terdampak', 'hujan']</t>
+          <t>['menyebut', 'jiwa', 'hujan', 'angin_kencang', 'angin', 'waspada', 'terdampak', 'atap', 'peristiwa', 'bmkg', 'kencang', 'unit']</t>
         </is>
       </c>
       <c r="F106" t="n">
@@ -8009,7 +8009,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>['tanah', 'banjir', 'kali', 'unit', 'banjir_bandang', 'mobil', 'penanganan', 'jawa', 'terdampak']</t>
+          <t>['mobil', 'tanah', 'banjir', 'kali', 'penanganan', 'terdampak', 'banjir_bandang', 'jawa', 'unit']</t>
         </is>
       </c>
       <c r="F107" t="n">
@@ -8067,7 +8067,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>['kapal', 'kencang', 'banjir', 'angin', 'bmkg', 'hujan']</t>
+          <t>['hujan', 'banjir', 'angin', 'bmkg', 'kapal', 'kencang']</t>
         </is>
       </c>
       <c r="F108" t="n">
@@ -8123,7 +8123,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>['cianjur', 'longsor', 'gempa_bumi', 'titik', 'ditemukan', 'gempa', 'mobil', 'kemarin', 'kendaraan']</t>
+          <t>['kemarin', 'cianjur', 'mobil', 'ditemukan', 'gempa_bumi', 'longsor', 'kendaraan', 'gempa', 'titik']</t>
         </is>
       </c>
       <c r="F109" t="n">
@@ -8180,7 +8180,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>['banjir', 'angin', 'bmkg', 'pesisir', 'berpotensi', 'ketinggian', 'terdampak', 'hujan', 'laut', 'waspada', 'rob', 'surut', 'pantai', 'arah', 'cuaca', 'banjir_rob', 'genangan', 'gelombang', 'jawa']</t>
+          <t>['hujan', 'banjir', 'arah', 'banjir_rob', 'laut', 'ketinggian', 'terdampak', 'jawa', 'rob', 'surut', 'cuaca', 'berpotensi', 'gelombang', 'genangan', 'pantai', 'angin', 'waspada', 'pesisir', 'bmkg']</t>
         </is>
       </c>
       <c r="F110" t="n">
@@ -8246,7 +8246,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>['cianjur', 'kencang', 'alam', 'tanah', 'kios', 'longsor', 'gempa', 'bangunan', 'jakarta', 'jawa']</t>
+          <t>['alam', 'kios', 'tanah', 'bangunan', 'cianjur', 'longsor', 'jawa', 'gempa', 'jakarta', 'kencang']</t>
         </is>
       </c>
       <c r="F111" t="n">
@@ -8365,7 +8365,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>['dibangun', 'pembangunan', 'tanah', 'proyek', 'longsor', 'titik', 'kemarin', 'kendaraan']</t>
+          <t>['kemarin', 'tanah', 'dibangun', 'longsor', 'proyek', 'kendaraan', 'pembangunan', 'titik']</t>
         </is>
       </c>
       <c r="F112" t="n">
@@ -8428,7 +8428,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>['mengungsi', 'laut', 'genangan', 'kencang', 'atap', 'angin', 'gelombang', 'pesisir', 'angin_kencang', 'jawa', 'kemarin', 'semarang']</t>
+          <t>['kemarin', 'laut', 'angin_kencang', 'angin', 'semarang', 'gelombang', 'atap', 'mengungsi', 'genangan', 'jawa', 'kencang', 'pesisir']</t>
         </is>
       </c>
       <c r="F113" t="n">
@@ -8502,7 +8502,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>['hujan', 'laut', 'potensi', 'waspada', 'banjir', 'angin', 'jakarta', 'bmkg', 'cuaca', 'cuaca_ekstrem', 'longsor', 'menyebut', 'membantu', 'tumbang', 'jawa', 'bpbd', 'pohon_tumbang']</t>
+          <t>['bpbd', 'menyebut', 'pohon_tumbang', 'membantu', 'hujan', 'cuaca', 'laut', 'banjir', 'longsor', 'angin', 'waspada', 'cuaca_ekstrem', 'potensi', 'jakarta', 'tumbang', 'jawa', 'bmkg']</t>
         </is>
       </c>
       <c r="F114" t="n">
@@ -8582,7 +8582,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>['pembangunan', 'banjir', 'sungai', 'terdampak', 'meluap', 'terdampak_banjir', 'genangan', 'bpbd', 'hujan']</t>
+          <t>['bpbd', 'hujan', 'sungai', 'banjir', 'terdampak', 'terdampak_banjir', 'meluap', 'genangan', 'pembangunan']</t>
         </is>
       </c>
       <c r="F115" t="n">
@@ -8652,7 +8652,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>['banjir', 'pohon_tumbang', 'titik', 'tumbang', 'genangan', 'hujan']</t>
+          <t>['pohon_tumbang', 'hujan', 'banjir', 'titik', 'genangan', 'tumbang']</t>
         </is>
       </c>
       <c r="F116" t="n">
@@ -8708,7 +8708,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>['mengungsi', 'upaya', 'terendam_banjir', 'banjir', 'sungai', 'terdampak', 'ketinggian', 'meluap', 'terdampak_banjir', 'kemarin', 'bpbd', 'hujan']</t>
+          <t>['bpbd', 'kemarin', 'hujan', 'sungai', 'banjir', 'ketinggian', 'terendam_banjir', 'terdampak', 'terdampak_banjir', 'meluap', 'mengungsi', 'upaya']</t>
         </is>
       </c>
       <c r="F117" t="n">
@@ -8769,7 +8769,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>['laut', 'pasar', 'banjir', 'membantu', 'ketinggian', 'terdampak_banjir', 'kemarin', 'hujan']</t>
+          <t>['membantu', 'kemarin', 'hujan', 'banjir', 'laut', 'ketinggian', 'terdampak_banjir', 'pasar']</t>
         </is>
       </c>
       <c r="F118" t="n">
@@ -8827,7 +8827,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>['lingkungan', 'dibangun', 'pengungsi', 'cianjur', 'pembangunan', 'tanah', 'unit', 'bmkg', 'longsor', 'titik', 'gempa', 'bangunan', 'gempa_bumi', 'sampah', 'pemerintah']</t>
+          <t>['pemerintah', 'cianjur', 'bangunan', 'tanah', 'dibangun', 'gempa_bumi', 'longsor', 'sampah', 'lingkungan', 'pengungsi', 'gempa', 'bmkg', 'pembangunan', 'titik', 'unit']</t>
         </is>
       </c>
       <c r="F119" t="n">
@@ -8915,7 +8915,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>['kedalaman', 'laut', 'potensi', 'pusat_gempa', 'tsunami', 'unit', 'bmkg', 'pesisir', 'magnitudo', 'gempa', 'bangunan', 'gempa_bumi', 'jawa', 'terdampak', 'bpbd']</t>
+          <t>['bpbd', 'magnitudo', 'bangunan', 'pusat_gempa', 'laut', 'tsunami', 'gempa_bumi', 'terdampak', 'pesisir', 'gempa', 'potensi', 'kedalaman', 'bmkg', 'jawa', 'unit']</t>
         </is>
       </c>
       <c r="F120" t="n">
@@ -8988,7 +8988,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>['alam', 'banjir', 'kegiatan', 'kebakaran', 'titik', 'polisi', 'jakarta']</t>
+          <t>['alam', 'banjir', 'kegiatan', 'polisi', 'kebakaran', 'jakarta', 'titik']</t>
         </is>
       </c>
       <c r="F121" t="n">
@@ -9071,7 +9071,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>['atap', 'angin', 'kali', 'tumbang', 'fenomena', 'terdampak', 'pohon_tumbang']</t>
+          <t>['pohon_tumbang', 'kali', 'angin', 'terdampak', 'atap', 'fenomena', 'tumbang']</t>
         </is>
       </c>
       <c r="F122" t="n">
@@ -9130,7 +9130,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>['tanah', 'banjir', 'cuaca', 'kemarin', 'hujan']</t>
+          <t>['kemarin', 'tanah', 'hujan', 'cuaca', 'banjir']</t>
         </is>
       </c>
       <c r="F123" t="n">
@@ -9206,7 +9206,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>['damkar', 'terbakar', 'atap', 'kebakaran', 'titik', 'api']</t>
+          <t>['damkar', 'atap', 'kebakaran', 'terbakar', 'api', 'titik']</t>
         </is>
       </c>
       <c r="F124" t="n">
@@ -9268,7 +9268,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>['lingkungan', 'pembangunan', 'banjir', 'program', 'menyebut', 'penanganan', 'sampah']</t>
+          <t>['menyebut', 'banjir', 'penanganan', 'program', 'sampah', 'lingkungan', 'pembangunan']</t>
         </is>
       </c>
       <c r="F125" t="n">
@@ -9353,7 +9353,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>['titik', 'kali', 'pemerintah']</t>
+          <t>['pemerintah', 'titik', 'kali']</t>
         </is>
       </c>
       <c r="F126" t="n">
@@ -9426,7 +9426,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>['banjir', 'angin', 'bmkg', 'banjir_bandang', 'berpotensi', 'bangunan', 'hujan', 'waspada', 'peristiwa', 'alam', 'unit', 'cuaca', 'cuaca_ekstrem', 'longsor', 'ditemukan', 'kencang', 'atap', 'bantuan', 'membantu', 'penanganan', 'bpbd']</t>
+          <t>['bangunan', 'hujan', 'banjir', 'penanganan', 'peristiwa', 'membantu', 'alam', 'ditemukan', 'banjir_bandang', 'unit', 'cuaca', 'berpotensi', 'longsor', 'cuaca_ekstrem', 'kencang', 'bpbd', 'angin', 'waspada', 'atap', 'bmkg', 'bantuan']</t>
         </is>
       </c>
       <c r="F127" t="n">
@@ -9486,7 +9486,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>['tanah', 'banjir', 'sungai', 'membantu', 'ditemukan', 'polisi', 'semarang']</t>
+          <t>['membantu', 'tanah', 'sungai', 'banjir', 'ditemukan', 'polisi', 'semarang']</t>
         </is>
       </c>
       <c r="F128" t="n">
@@ -9536,7 +9536,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>['kemarin', 'arah', 'terendam_banjir', 'banjir', 'sungai', 'surut', 'ketinggian', 'meluap', 'lebat', 'bpbd', 'hujan']</t>
+          <t>['bpbd', 'kemarin', 'hujan', 'surut', 'sungai', 'banjir', 'ketinggian', 'terendam_banjir', 'arah', 'meluap', 'lebat']</t>
         </is>
       </c>
       <c r="F129" t="n">
@@ -9589,7 +9589,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>['penanganan', 'pembangunan', 'banjir', 'menyebut']</t>
+          <t>['menyebut', 'pembangunan', 'banjir', 'penanganan']</t>
         </is>
       </c>
       <c r="F130" t="n">
@@ -9657,7 +9657,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>['lingkungan', 'pembangunan', 'tanah', 'banjir', 'dki_jakarta', 'kegiatan', 'unit', 'cuaca_ekstrem', 'cuaca', 'mobil', 'penanganan', 'jakarta', 'genangan']</t>
+          <t>['mobil', 'tanah', 'banjir', 'cuaca', 'penanganan', 'kegiatan', 'lingkungan', 'dki_jakarta', 'genangan', 'cuaca_ekstrem', 'jakarta', 'pembangunan', 'unit']</t>
         </is>
       </c>
       <c r="F131" t="n">
@@ -9734,7 +9734,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>['terbakar', 'peristiwa', 'pasar', 'kios', 'kebakaran', 'polisi', 'api', 'kemarin']</t>
+          <t>['kemarin', 'kios', 'polisi', 'kebakaran', 'terbakar', 'api', 'peristiwa', 'pasar']</t>
         </is>
       </c>
       <c r="F132" t="n">
@@ -9786,7 +9786,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>['tanah', 'sungai', 'kendaraan', 'longsor', 'polisi', 'ditemukan', 'mobil', 'bpbd']</t>
+          <t>['bpbd', 'mobil', 'tanah', 'sungai', 'ditemukan', 'longsor', 'polisi', 'kendaraan']</t>
         </is>
       </c>
       <c r="F133" t="n">
@@ -9852,7 +9852,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>['potensi', 'bandung', 'arah', 'tanah', 'kendaraan', 'longsor', 'bpbd']</t>
+          <t>['bpbd', 'tanah', 'bandung', 'longsor', 'arah', 'kendaraan', 'potensi']</t>
         </is>
       </c>
       <c r="F134" t="n">
@@ -9915,7 +9915,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>['terendam_banjir', 'banjir', 'kemarin']</t>
+          <t>['kemarin', 'terendam_banjir', 'banjir']</t>
         </is>
       </c>
       <c r="F135" t="n">
@@ -9979,7 +9979,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>['pantai', 'kencang', 'terendam_banjir', 'tanah', 'banjir', 'cuaca_ekstrem', 'gelombang', 'titik', 'ketinggian', 'semarang']</t>
+          <t>['tanah', 'banjir', 'ketinggian', 'terendam_banjir', 'semarang', 'gelombang', 'cuaca_ekstrem', 'pantai', 'titik', 'kencang']</t>
         </is>
       </c>
       <c r="F136" t="n">
@@ -10041,7 +10041,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>['damkar', 'terbakar', 'kali', 'unit', 'kebakaran', 'jiwa', 'polisi', 'api', 'mobil', 'jawa']</t>
+          <t>['damkar', 'mobil', 'jiwa', 'kali', 'polisi', 'kebakaran', 'terbakar', 'api', 'jawa', 'unit']</t>
         </is>
       </c>
       <c r="F137" t="n">
@@ -10093,7 +10093,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>['terbakar', 'peristiwa', 'tanah', 'kali', 'unit', 'kebakaran', 'jiwa', 'api', 'jakarta', 'kendaraan']</t>
+          <t>['tanah', 'jiwa', 'kali', 'kebakaran', 'terbakar', 'kendaraan', 'peristiwa', 'api', 'jakarta', 'unit']</t>
         </is>
       </c>
       <c r="F138" t="n">
@@ -10150,7 +10150,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>['upaya', 'tanggal', 'pembangunan', 'sekolah', 'tanah', 'bantuan', 'mobil', 'makassar', 'pemerintah']</t>
+          <t>['pemerintah', 'mobil', 'tanah', 'tanggal', 'sekolah', 'upaya', 'makassar', 'pembangunan', 'bantuan']</t>
         </is>
       </c>
       <c r="F139" t="n">
@@ -10327,7 +10327,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>['tanggal', 'kencang', 'makassar', 'hujan_lebat', 'angin', 'sulsel', 'bmkg', 'cuaca', 'cuaca_ekstrem', 'berpotensi', 'petir', 'angin_kencang', 'terdampak', 'lebat', 'hujan']</t>
+          <t>['hujan', 'cuaca', 'berpotensi', 'angin_kencang', 'hujan_lebat', 'petir', 'angin', 'terdampak', 'tanggal', 'sulsel', 'lebat', 'cuaca_ekstrem', 'makassar', 'bmkg', 'kencang']</t>
         </is>
       </c>
       <c r="F140" t="n">
@@ -10384,7 +10384,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>['potensi', 'waspada', 'rob', 'banjir', 'bmkg', 'cuaca', 'cuaca_ekstrem', 'titik', 'ketinggian', 'banjir_rob', 'bpbd', 'hujan']</t>
+          <t>['bpbd', 'rob', 'hujan', 'cuaca', 'banjir', 'ketinggian', 'waspada', 'banjir_rob', 'cuaca_ekstrem', 'potensi', 'bmkg', 'titik']</t>
         </is>
       </c>
       <c r="F141" t="n">
@@ -10440,7 +10440,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>['upaya', 'cianjur', 'gempa_bumi', 'gempa', 'ditemukan', 'bangunan', 'penanganan', 'polisi', 'jawa']</t>
+          <t>['cianjur', 'bangunan', 'ditemukan', 'penanganan', 'gempa_bumi', 'polisi', 'upaya', 'gempa', 'jawa']</t>
         </is>
       </c>
       <c r="F142" t="n">
@@ -10524,7 +10524,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>['kedalaman', 'pusat_gempa', 'bmkg', 'magnitudo', 'gempa', 'gempa_bumi']</t>
+          <t>['magnitudo', 'pusat_gempa', 'gempa_bumi', 'gempa', 'kedalaman', 'bmkg']</t>
         </is>
       </c>
       <c r="F143" t="n">
@@ -10569,7 +10569,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>['jakarta', 'banjir', 'pemerintah']</t>
+          <t>['pemerintah', 'jakarta', 'banjir']</t>
         </is>
       </c>
       <c r="F144" t="n">
@@ -10677,7 +10677,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>['waspada', 'peristiwa', 'kencang', 'terendam_banjir', 'alam', 'banjir', 'tanah', 'angin', 'hujan_lebat', 'bmkg', 'cuaca_ekstrem', 'longsor', 'jiwa', 'titik', 'meluap', 'lebat', 'bpbd', 'hujan']</t>
+          <t>['bpbd', 'alam', 'tanah', 'hujan', 'jiwa', 'banjir', 'longsor', 'hujan_lebat', 'terendam_banjir', 'angin', 'waspada', 'meluap', 'lebat', 'peristiwa', 'cuaca_ekstrem', 'bmkg', 'titik', 'kencang']</t>
         </is>
       </c>
       <c r="F145" t="n">
@@ -10775,7 +10775,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>['mengungsi', 'banjir_rob', 'rob', 'pembangunan', 'banjir', 'sungai', 'jiwa', 'menyebut', 'membantu', 'titik', 'ketinggian', 'penanganan', 'jawa', 'terdampak_banjir', 'genangan', 'bpbd', 'hujan']</t>
+          <t>['bpbd', 'rob', 'menyebut', 'membantu', 'hujan', 'jiwa', 'sungai', 'penanganan', 'banjir', 'ketinggian', 'terdampak_banjir', 'mengungsi', 'banjir_rob', 'genangan', 'pembangunan', 'titik', 'jawa']</t>
         </is>
       </c>
       <c r="F146" t="n">
@@ -10844,7 +10844,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>['kedalaman', 'pusat_gempa', 'bmkg', 'magnitudo', 'gempa', 'gempa_bumi', 'jawa']</t>
+          <t>['magnitudo', 'pusat_gempa', 'gempa_bumi', 'gempa', 'kedalaman', 'bmkg', 'jawa']</t>
         </is>
       </c>
       <c r="F147" t="n">
@@ -10889,7 +10889,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>['angin_kencang', 'waspada', 'kencang', 'luka', 'pohon', 'atap', 'angin', 'pohon_tumbang', 'cuaca', 'jiwa', 'tumbang', 'bpbd', 'hujan']</t>
+          <t>['bpbd', 'luka', 'pohon_tumbang', 'jiwa', 'hujan', 'cuaca', 'pohon', 'angin_kencang', 'angin', 'waspada', 'atap', 'tumbang', 'kencang']</t>
         </is>
       </c>
       <c r="F148" t="n">
@@ -10950,7 +10950,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>['kedalaman', 'laut', 'kali', 'tsunami', 'bmkg', 'jiwa', 'titik', 'berpotensi', 'magnitudo', 'gempa']</t>
+          <t>['magnitudo', 'jiwa', 'kali', 'tsunami', 'berpotensi', 'laut', 'gempa', 'kedalaman', 'titik', 'bmkg']</t>
         </is>
       </c>
       <c r="F149" t="n">
@@ -11001,7 +11001,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>['dibangun', 'terbakar', 'pasar', 'kios', 'unit', 'kebakaran', 'polisi', 'api', 'penanganan', 'pemerintah']</t>
+          <t>['pemerintah', 'kios', 'penanganan', 'dibangun', 'polisi', 'kebakaran', 'terbakar', 'api', 'unit', 'pasar']</t>
         </is>
       </c>
       <c r="F150" t="n">
@@ -11066,7 +11066,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>['banjir', 'sungai', 'banjir_bandang', 'longsor', 'menyebut', 'ditemukan', 'jawa', 'kemarin', 'bpbd', 'hujan']</t>
+          <t>['bpbd', 'menyebut', 'kemarin', 'hujan', 'sungai', 'ditemukan', 'banjir', 'longsor', 'banjir_bandang', 'jawa']</t>
         </is>
       </c>
       <c r="F151" t="n">
@@ -11142,7 +11142,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>['banjir', 'angin', 'bmkg', 'berpotensi', 'ketinggian', 'makassar', 'lebat', 'hujan', 'pohon_tumbang', 'laut', 'waspada', 'sulsel', 'angin_kencang', 'tumbang', 'potensi', 'hujan_lebat', 'cuaca', 'cuaca_ekstrem', 'longsor', 'genangan', 'kencang', 'gelombang', 'tanggal']</t>
+          <t>['hujan', 'banjir', 'angin_kencang', 'sulsel', 'lebat', 'laut', 'ketinggian', 'makassar', 'tumbang', 'pohon_tumbang', 'cuaca', 'berpotensi', 'longsor', 'gelombang', 'genangan', 'cuaca_ekstrem', 'kencang', 'hujan_lebat', 'angin', 'waspada', 'tanggal', 'potensi', 'bmkg']</t>
         </is>
       </c>
       <c r="F152" t="n">
@@ -11238,7 +11238,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>['mengungsi', 'rob', 'kapal', 'kencang', 'banjir', 'angin', 'bmkg', 'cuaca', 'cuaca_ekstrem', 'gelombang', 'pesisir', 'terdampak', 'jawa', 'terdampak_banjir', 'banjir_rob', 'hujan']</t>
+          <t>['rob', 'hujan', 'cuaca', 'banjir', 'kencang', 'angin', 'gelombang', 'terdampak', 'terdampak_banjir', 'mengungsi', 'banjir_rob', 'pesisir', 'cuaca_ekstrem', 'bmkg', 'kapal', 'jawa']</t>
         </is>
       </c>
       <c r="F153" t="n">
@@ -11299,7 +11299,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>['damkar', 'mobil', 'kebakaran']</t>
+          <t>['kebakaran', 'damkar', 'mobil']</t>
         </is>
       </c>
       <c r="F154" t="n">
@@ -11354,7 +11354,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>['banjir', 'kereta', 'terdampak', 'terdampak_banjir', 'hujan', 'mengungsi', 'laut', 'pantai', 'upaya', 'unit', 'jiwa', 'titik', 'pengungsi', 'gelombang', 'api', 'penanganan', 'semarang', 'jawa', 'bpbd']</t>
+          <t>['hujan', 'banjir', 'penanganan', 'semarang', 'kereta', 'laut', 'terdampak', 'api', 'upaya', 'jawa', 'unit', 'gelombang', 'terdampak_banjir', 'pantai', 'titik', 'bpbd', 'jiwa', 'pengungsi', 'mengungsi']</t>
         </is>
       </c>
       <c r="F155" t="n">
@@ -11470,7 +11470,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>['hujan', 'laut', 'potensi', 'hujan_lebat', 'banjir', 'tanah', 'sungai', 'angin', 'jakarta', 'longsor', 'tumbang', 'jawa', 'lebat', 'bpbd', 'pohon_tumbang']</t>
+          <t>['bpbd', 'pohon_tumbang', 'tanah', 'hujan', 'sungai', 'laut', 'banjir', 'longsor', 'hujan_lebat', 'angin', 'lebat', 'potensi', 'jakarta', 'tumbang', 'jawa']</t>
         </is>
       </c>
       <c r="F156" t="n">
@@ -11541,7 +11541,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>['damkar', 'alam', 'kebakaran', 'ditemukan', 'kemarin']</t>
+          <t>['damkar', 'kemarin', 'alam', 'ditemukan', 'kebakaran']</t>
         </is>
       </c>
       <c r="F157" t="n">
@@ -11606,7 +11606,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>['mengungsi', 'terendam_banjir', 'banjir', 'jiwa', 'ketinggian', 'meluap', 'terdampak']</t>
+          <t>['jiwa', 'banjir', 'ketinggian', 'terendam_banjir', 'terdampak', 'meluap', 'mengungsi']</t>
         </is>
       </c>
       <c r="F158" t="n">
@@ -11667,7 +11667,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>['luka', 'banjir', 'sungai', 'banjir_bandang', 'longsor', 'titik', 'meluap', 'terdampak', 'bpbd', 'pemerintah']</t>
+          <t>['bpbd', 'luka', 'pemerintah', 'sungai', 'banjir', 'longsor', 'terdampak', 'meluap', 'banjir_bandang', 'titik']</t>
         </is>
       </c>
       <c r="F159" t="n">
@@ -11730,7 +11730,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>['terbakar', 'lantai', 'api', 'atap', 'unit', 'bantuan', 'kebakaran', 'membantu', 'bangunan']</t>
+          <t>['membantu', 'unit', 'bangunan', 'atap', 'kebakaran', 'terbakar', 'api', 'bantuan', 'lantai']</t>
         </is>
       </c>
       <c r="F160" t="n">
@@ -11793,7 +11793,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>['mengungsi', 'upaya', 'potensi', 'cianjur', 'bandung', 'luka', 'tanah', 'unit', 'gempa', 'gempa_bumi', 'kemarin']</t>
+          <t>['luka', 'kemarin', 'cianjur', 'tanah', 'gempa_bumi', 'bandung', 'mengungsi', 'upaya', 'gempa', 'potensi', 'unit']</t>
         </is>
       </c>
       <c r="F161" t="n">
@@ -11859,7 +11859,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>['lingkungan', 'peristiwa', 'pohon', 'banjir', 'sungai', 'cuaca', 'cuaca_ekstrem', 'gelombang', 'hujan']</t>
+          <t>['hujan', 'cuaca', 'sungai', 'banjir', 'pohon', 'gelombang', 'lingkungan', 'peristiwa', 'cuaca_ekstrem']</t>
         </is>
       </c>
       <c r="F162" t="n">
@@ -11954,7 +11954,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>['peristiwa', 'alam', 'banjir', 'bantuan', 'polisi', 'tanggal']</t>
+          <t>['alam', 'banjir', 'polisi', 'tanggal', 'peristiwa', 'bantuan']</t>
         </is>
       </c>
       <c r="F163" t="n">
@@ -12018,7 +12018,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>['laut', 'dibangun', 'rob', 'sekolah', 'banjir', 'kali', 'petir', 'jawa', 'banjir_rob', 'semarang', 'hujan']</t>
+          <t>['rob', 'hujan', 'banjir', 'laut', 'dibangun', 'kali', 'petir', 'semarang', 'sekolah', 'banjir_rob', 'jawa']</t>
         </is>
       </c>
       <c r="F164" t="n">
@@ -12077,7 +12077,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>['mengungsi', 'genangan', 'kemarin', 'terendam_banjir', 'atap', 'banjir', 'bantuan', 'ketinggian', 'jawa', 'terdampak_banjir', 'lebat', 'kendaraan', 'hujan']</t>
+          <t>['kemarin', 'hujan', 'banjir', 'ketinggian', 'terendam_banjir', 'atap', 'terdampak_banjir', 'lebat', 'kendaraan', 'mengungsi', 'genangan', 'jawa', 'bantuan']</t>
         </is>
       </c>
       <c r="F165" t="n">
@@ -12143,7 +12143,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>['damkar', 'peristiwa', 'sungai', 'kali', 'unit', 'kebakaran', 'jakarta']</t>
+          <t>['damkar', 'sungai', 'kali', 'kebakaran', 'peristiwa', 'jakarta', 'unit']</t>
         </is>
       </c>
       <c r="F166" t="n">
@@ -12208,7 +12208,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>['lingkungan', 'angin_kencang', 'potensi', 'tanggal', 'kencang', 'pohon', 'banjir', 'angin', 'cuaca', 'menyebut', 'tumbang', 'makassar', 'genangan', 'pohon_tumbang']</t>
+          <t>['menyebut', 'pohon_tumbang', 'cuaca', 'banjir', 'pohon', 'angin_kencang', 'makassar', 'angin', 'tanggal', 'lingkungan', 'genangan', 'potensi', 'tumbang', 'kencang']</t>
         </is>
       </c>
       <c r="F167" t="n">
@@ -12263,7 +12263,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>['kedalaman', 'laut', 'pusat_gempa', 'arah', 'tsunami', 'bmkg', 'gelombang', 'magnitudo', 'gempa', 'gempa_bumi', 'getaran']</t>
+          <t>['magnitudo', 'pusat_gempa', 'tsunami', 'laut', 'gempa_bumi', 'getaran', 'arah', 'gelombang', 'gempa', 'kedalaman', 'bmkg']</t>
         </is>
       </c>
       <c r="F168" t="n">
@@ -12318,7 +12318,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>['banjir', 'sungai', 'banjir_bandang', 'titik', 'ditemukan', 'meluap', 'jawa', 'terdampak_banjir', 'hujan']</t>
+          <t>['hujan', 'sungai', 'ditemukan', 'banjir', 'terdampak_banjir', 'meluap', 'banjir_bandang', 'titik', 'jawa']</t>
         </is>
       </c>
       <c r="F169" t="n">
@@ -12378,7 +12378,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>['banjir', 'angin', 'bmkg', 'banjir_bandang', 'menyebut', 'berpotensi', 'lebat', 'hujan', 'waspada', 'sulsel', 'jakarta', 'angin_kencang', 'potensi', 'hujan_lebat', 'cuaca', 'cuaca_ekstrem', 'longsor', 'kencang', 'gelombang']</t>
+          <t>['menyebut', 'hujan', 'banjir', 'angin_kencang', 'sulsel', 'lebat', 'banjir_bandang', 'jakarta', 'cuaca', 'berpotensi', 'longsor', 'gelombang', 'cuaca_ekstrem', 'kencang', 'hujan_lebat', 'angin', 'waspada', 'potensi', 'bmkg']</t>
         </is>
       </c>
       <c r="F170" t="n">
@@ -12438,7 +12438,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>['pantai', 'laut', 'lantai', 'kapal', 'pasar', 'kencang', 'angin', 'kali', 'pesisir', 'titik', 'api']</t>
+          <t>['laut', 'pasar', 'kali', 'titik', 'angin', 'api', 'pesisir', 'pantai', 'kapal', 'kencang', 'lantai']</t>
         </is>
       </c>
       <c r="F171" t="n">
@@ -12555,7 +12555,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>['kedalaman', 'gempa_susulan', 'kali', 'gempa', 'magnitudo', 'bpbd', 'gempa_bumi', 'getaran', 'tanggal']</t>
+          <t>['bpbd', 'magnitudo', 'kali', 'gempa_bumi', 'getaran', 'tanggal', 'gempa_susulan', 'gempa', 'kedalaman']</t>
         </is>
       </c>
       <c r="F172" t="n">
@@ -12667,7 +12667,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>['terbakar', 'peristiwa', 'pasar', 'kios', 'kebakaran', 'jiwa']</t>
+          <t>['kios', 'jiwa', 'kebakaran', 'terbakar', 'peristiwa', 'pasar']</t>
         </is>
       </c>
       <c r="F173" t="n">
@@ -12716,7 +12716,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>['mengungsi', 'peristiwa', 'atap', 'angin', 'unit', 'jiwa', 'terdampak', 'bpbd']</t>
+          <t>['bpbd', 'jiwa', 'angin', 'terdampak', 'atap', 'mengungsi', 'peristiwa', 'unit']</t>
         </is>
       </c>
       <c r="F174" t="n">
@@ -12769,7 +12769,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>['damkar', 'potensi', 'kencang', 'terendam_banjir', 'banjir', 'dki_jakarta', 'angin', 'surut', 'titik', 'bpbd_dki', 'ketinggian', 'jakarta', 'genangan', 'bpbd', 'hujan']</t>
+          <t>['bpbd', 'damkar', 'hujan', 'surut', 'banjir', 'bpbd_dki', 'ketinggian', 'terendam_banjir', 'angin', 'dki_jakarta', 'genangan', 'potensi', 'jakarta', 'titik', 'kencang']</t>
         </is>
       </c>
       <c r="F175" t="n">
@@ -12836,7 +12836,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>['lingkungan', 'bandung', 'banjir', 'sungai', 'kegiatan', 'kali', 'ditemukan', 'terdampak', 'lebat', 'sampah', 'hujan']</t>
+          <t>['hujan', 'sungai', 'ditemukan', 'kali', 'kegiatan', 'banjir', 'sampah', 'bandung', 'terdampak', 'lingkungan', 'lebat']</t>
         </is>
       </c>
       <c r="F176" t="n">
@@ -12950,7 +12950,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>['mengungsi', 'makassar', 'banjir', 'kali', 'unit', 'jiwa', 'terdampak', 'terdampak_banjir', 'bpbd']</t>
+          <t>['bpbd', 'jiwa', 'banjir', 'kali', 'terdampak', 'terdampak_banjir', 'mengungsi', 'makassar', 'unit']</t>
         </is>
       </c>
       <c r="F177" t="n">
@@ -13008,7 +13008,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>['terendam_banjir', 'banjir', 'bantuan', 'membantu', 'kemarin']</t>
+          <t>['membantu', 'kemarin', 'banjir', 'terendam_banjir', 'bantuan']</t>
         </is>
       </c>
       <c r="F178" t="n">
@@ -13069,7 +13069,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>['terendam_banjir', 'banjir', 'kendaraan', 'menyebut', 'titik', 'membantu', 'penanganan', 'terdampak_banjir', 'bpbd', 'hujan']</t>
+          <t>['bpbd', 'menyebut', 'membantu', 'hujan', 'banjir', 'penanganan', 'terendam_banjir', 'terdampak_banjir', 'kendaraan', 'titik']</t>
         </is>
       </c>
       <c r="F179" t="n">
@@ -13126,7 +13126,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>['waspada', 'peristiwa', 'kencang', 'atap', 'banjir', 'angin', 'bantuan', 'cuaca_ekstrem', 'longsor', 'jiwa', 'angin_kencang', 'terdampak', 'bpbd']</t>
+          <t>['bpbd', 'jiwa', 'banjir', 'angin_kencang', 'longsor', 'angin', 'waspada', 'terdampak', 'atap', 'peristiwa', 'cuaca_ekstrem', 'kencang', 'bantuan']</t>
         </is>
       </c>
       <c r="F180" t="n">
@@ -13186,7 +13186,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>['pantai', 'genangan', 'banjir_rob', 'lebat', 'peristiwa', 'pembangunan', 'terendam_banjir', 'banjir', 'kios', 'kali', 'cuaca', 'meluap', 'pemerintah', 'kemarin', 'hujan']</t>
+          <t>['kemarin', 'pemerintah', 'kios', 'hujan', 'cuaca', 'kali', 'banjir', 'terendam_banjir', 'meluap', 'lebat', 'banjir_rob', 'peristiwa', 'genangan', 'pantai', 'pembangunan']</t>
         </is>
       </c>
       <c r="F181" t="n">
@@ -13254,7 +13254,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>['pengungsi', 'cianjur', 'alam', 'bantuan', 'gempa_bumi', 'membantu', 'ditemukan', 'gempa', 'penanganan', 'jawa', 'terdampak', 'kemarin']</t>
+          <t>['membantu', 'kemarin', 'alam', 'cianjur', 'ditemukan', 'penanganan', 'gempa_bumi', 'terdampak', 'pengungsi', 'gempa', 'jawa', 'bantuan']</t>
         </is>
       </c>
       <c r="F182" t="n">
@@ -13321,7 +13321,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>['lingkungan', 'banjir', 'sungai', 'bantuan', 'surut', 'ketinggian', 'meluap', 'terdampak_banjir', 'bpbd', 'hujan']</t>
+          <t>['bpbd', 'hujan', 'surut', 'sungai', 'banjir', 'ketinggian', 'lingkungan', 'terdampak_banjir', 'meluap', 'bantuan']</t>
         </is>
       </c>
       <c r="F183" t="n">
@@ -13385,7 +13385,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>['potensi', 'banjir', 'dki_jakarta', 'cuaca_ekstrem', 'bpbd_dki', 'berpotensi', 'jakarta', 'terdampak', 'kemarin', 'pemerintah']</t>
+          <t>['kemarin', 'pemerintah', 'banjir', 'berpotensi', 'bpbd_dki', 'terdampak', 'dki_jakarta', 'cuaca_ekstrem', 'potensi', 'jakarta']</t>
         </is>
       </c>
       <c r="F184" t="n">
@@ -13467,7 +13467,7 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>['banjir', 'surut', 'titik', 'polisi', 'ketinggian', 'terdampak', 'genangan', 'semarang', 'hujan']</t>
+          <t>['surut', 'hujan', 'banjir', 'ketinggian', 'polisi', 'semarang', 'terdampak', 'genangan', 'titik']</t>
         </is>
       </c>
       <c r="F185" t="n">
@@ -13524,7 +13524,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>['damkar', 'terbakar', 'luka', 'angin', 'kebakaran', 'jiwa', 'api', 'mobil', 'jakarta']</t>
+          <t>['luka', 'damkar', 'mobil', 'jiwa', 'angin', 'kebakaran', 'terbakar', 'api', 'jakarta']</t>
         </is>
       </c>
       <c r="F186" t="n">
@@ -13575,7 +13575,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>['pasar', 'arah', 'banjir', 'kereta', 'menyebut', 'api', 'jakarta', 'jawa', 'genangan', 'semarang']</t>
+          <t>['menyebut', 'banjir', 'semarang', 'arah', 'genangan', 'api', 'kereta', 'jakarta', 'jawa', 'pasar']</t>
         </is>
       </c>
       <c r="F187" t="n">
@@ -13636,7 +13636,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>['peristiwa', 'tanah', 'longsor', 'ketinggian', 'kemarin', 'bpbd', 'hujan']</t>
+          <t>['bpbd', 'kemarin', 'tanah', 'hujan', 'longsor', 'ketinggian', 'peristiwa']</t>
         </is>
       </c>
       <c r="F188" t="n">
@@ -13695,7 +13695,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>['pasar', 'kebakaran', 'api']</t>
+          <t>['kebakaran', 'api', 'pasar']</t>
         </is>
       </c>
       <c r="F189" t="n">
@@ -13752,7 +13752,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>['peristiwa', 'cianjur', 'kegiatan', 'kali', 'bantuan', 'titik', 'gempa', 'gempa_bumi', 'terdampak', 'kendaraan']</t>
+          <t>['cianjur', 'kali', 'gempa_bumi', 'kegiatan', 'terdampak', 'kendaraan', 'peristiwa', 'gempa', 'titik', 'bantuan']</t>
         </is>
       </c>
       <c r="F190" t="n">
@@ -13841,7 +13841,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>['damkar', 'terbakar', 'pasar', 'kali', 'kendaraan', 'unit', 'kebakaran', 'titik', 'membantu', 'api', 'mobil', 'bpbd']</t>
+          <t>['bpbd', 'damkar', 'membantu', 'mobil', 'kali', 'kebakaran', 'terbakar', 'kendaraan', 'api', 'titik', 'unit', 'pasar']</t>
         </is>
       </c>
       <c r="F191" t="n">
@@ -13898,7 +13898,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>['lingkungan', 'genangan', 'potensi', 'waspada', 'banjir', 'dki_jakarta', 'kali', 'bantuan', 'titik', 'bpbd_dki', 'jakarta', 'terdampak', 'lebat', 'bpbd', 'hujan']</t>
+          <t>['bpbd', 'hujan', 'banjir', 'kali', 'bpbd_dki', 'waspada', 'terdampak', 'lingkungan', 'dki_jakarta', 'lebat', 'genangan', 'potensi', 'jakarta', 'titik', 'bantuan']</t>
         </is>
       </c>
       <c r="F192" t="n">
@@ -13974,7 +13974,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>['pantai', 'laut', 'waspada', 'kali', 'pesisir']</t>
+          <t>['kali', 'laut', 'waspada', 'pesisir', 'pantai']</t>
         </is>
       </c>
       <c r="F193" t="n">
@@ -14042,7 +14042,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>['banjir', 'angin', 'bmkg', 'berpotensi', 'petir', 'ketinggian', 'terdampak', 'terdampak_banjir', 'lebat', 'hujan', 'mengungsi', 'pohon_tumbang', 'makassar', 'waspada', 'sulsel', 'tumbang', 'angin_kencang', 'sungai', 'cuaca', 'cuaca_ekstrem', 'jiwa', 'titik', 'kencang', 'luka', 'bantuan', 'bpbd', 'tanggal']</t>
+          <t>['hujan', 'banjir', 'angin_kencang', 'sulsel', 'lebat', 'ketinggian', 'petir', 'terdampak', 'makassar', 'tumbang', 'luka', 'pohon_tumbang', 'sungai', 'cuaca', 'berpotensi', 'terdampak_banjir', 'cuaca_ekstrem', 'titik', 'kencang', 'bpbd', 'jiwa', 'angin', 'waspada', 'tanggal', 'mengungsi', 'bmkg', 'bantuan']</t>
         </is>
       </c>
       <c r="F194" t="n">
@@ -14123,7 +14123,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>['damkar', 'peristiwa', 'hujan_lebat', 'unit', 'cuaca', 'longsor', 'jiwa', 'polisi', 'ditemukan', 'lebat', 'bpbd', 'hujan']</t>
+          <t>['bpbd', 'damkar', 'hujan', 'jiwa', 'cuaca', 'ditemukan', 'longsor', 'hujan_lebat', 'polisi', 'lebat', 'peristiwa', 'unit']</t>
         </is>
       </c>
       <c r="F195" t="n">
@@ -14187,7 +14187,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>['kencang', 'angin_kencang', 'alam', 'angin']</t>
+          <t>['angin_kencang', 'alam', 'angin', 'kencang']</t>
         </is>
       </c>
       <c r="F196" t="n">
@@ -14258,7 +14258,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>['waspada', 'bandung', 'bantuan', 'kebakaran', 'menyebut', 'titik', 'mobil', 'kemarin']</t>
+          <t>['menyebut', 'kemarin', 'mobil', 'bandung', 'waspada', 'kebakaran', 'titik', 'bantuan']</t>
         </is>
       </c>
       <c r="F197" t="n">
@@ -14323,7 +14323,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>['jawa', 'banjir', 'pelaku', 'kali']</t>
+          <t>['pelaku', 'banjir', 'jawa', 'kali']</t>
         </is>
       </c>
       <c r="F198" t="n">
@@ -14384,7 +14384,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>['damkar', 'dki_jakarta', 'unit', 'mobil', 'kebakaran', 'api', 'penanganan', 'jakarta', 'kendaraan']</t>
+          <t>['damkar', 'mobil', 'penanganan', 'kebakaran', 'dki_jakarta', 'kendaraan', 'api', 'jakarta', 'unit']</t>
         </is>
       </c>
       <c r="F199" t="n">
@@ -14432,7 +14432,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>['upaya', 'luka', 'alam', 'banjir', 'tanah', 'sungai', 'banjir_bandang', 'longsor', 'titik', 'meluap', 'bpbd', 'hujan']</t>
+          <t>['bpbd', 'alam', 'luka', 'tanah', 'hujan', 'sungai', 'banjir', 'longsor', 'meluap', 'upaya', 'banjir_bandang', 'titik']</t>
         </is>
       </c>
       <c r="F200" t="n">
@@ -14495,7 +14495,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>['potensi', 'waspada', 'kemarin', 'kapal', 'kencang', 'hujan_lebat', 'banjir', 'sungai', 'angin', 'bmkg', 'longsor', 'gelombang', 'pesisir', 'berpotensi', 'angin_kencang', 'lebat', 'hujan']</t>
+          <t>['kemarin', 'hujan', 'sungai', 'banjir', 'berpotensi', 'angin_kencang', 'hujan_lebat', 'longsor', 'angin', 'waspada', 'gelombang', 'lebat', 'pesisir', 'potensi', 'bmkg', 'kapal', 'kencang']</t>
         </is>
       </c>
       <c r="F201" t="n">
@@ -14551,7 +14551,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>['peristiwa', 'banjir', 'kali', 'tsunami', 'titik', 'gempa', 'gempa_bumi', 'fenomena', 'banjir_rob']</t>
+          <t>['banjir', 'kali', 'tsunami', 'gempa_bumi', 'banjir_rob', 'peristiwa', 'fenomena', 'gempa', 'titik']</t>
         </is>
       </c>
       <c r="F202" t="n">
@@ -14617,7 +14617,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>['kedalaman', 'laut', 'pusat_gempa', 'gempa_susulan', 'arah', 'tsunami', 'bmkg', 'menyebut', 'titik', 'berpotensi', 'magnitudo', 'bangunan', 'gempa_bumi', 'gempa', 'getaran']</t>
+          <t>['menyebut', 'magnitudo', 'bangunan', 'pusat_gempa', 'laut', 'tsunami', 'berpotensi', 'gempa_bumi', 'getaran', 'arah', 'gempa_susulan', 'gempa', 'kedalaman', 'titik', 'bmkg']</t>
         </is>
       </c>
       <c r="F203" t="n">
@@ -14678,7 +14678,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>['bandung', 'alam', 'kegiatan', 'kali', 'gempa']</t>
+          <t>['alam', 'kali', 'bandung', 'kegiatan', 'gempa']</t>
         </is>
       </c>
       <c r="F204" t="n">
@@ -14771,7 +14771,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>['mengungsi', 'laut', 'waspada', 'kencang', 'banjir', 'angin', 'bantuan', 'cuaca', 'longsor', 'gelombang', 'membantu', 'pesisir', 'makassar', 'bpbd', 'pemerintah']</t>
+          <t>['bpbd', 'membantu', 'pemerintah', 'cuaca', 'laut', 'banjir', 'longsor', 'angin', 'waspada', 'gelombang', 'mengungsi', 'pesisir', 'makassar', 'kencang', 'bantuan']</t>
         </is>
       </c>
       <c r="F205" t="n">
@@ -14837,7 +14837,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>['bandung', 'cianjur', 'tanah', 'kegiatan', 'bantuan', 'titik', 'gempa', 'gempa_bumi']</t>
+          <t>['cianjur', 'tanah', 'kegiatan', 'gempa_bumi', 'bandung', 'gempa', 'titik', 'bantuan']</t>
         </is>
       </c>
       <c r="F206" t="n">
@@ -14935,7 +14935,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>['banjir', 'angin', 'bmkg', 'menyebut', 'pesisir', 'pemerintah', 'hujan', 'laut', 'waspada', 'surut', 'angin_kencang', 'potensi', 'terendam_banjir', 'cuaca_ekstrem', 'cuaca', 'titik', 'kemarin', 'genangan', 'banjir_rob', 'kencang', 'bantuan', 'jawa', 'bpbd', 'tanggal']</t>
+          <t>['menyebut', 'hujan', 'banjir', 'angin_kencang', 'banjir_rob', 'laut', 'jawa', 'surut', 'cuaca', 'terendam_banjir', 'genangan', 'cuaca_ekstrem', 'titik', 'kencang', 'bpbd', 'kemarin', 'pemerintah', 'angin', 'waspada', 'tanggal', 'pesisir', 'potensi', 'bmkg', 'bantuan']</t>
         </is>
       </c>
       <c r="F207" t="n">
@@ -14999,7 +14999,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>['pengungsi', 'cianjur', 'luka', 'unit', 'bantuan', 'menyebut', 'gempa_bumi', 'membantu', 'titik', 'gempa', 'mobil', 'jawa', 'terdampak', 'kendaraan']</t>
+          <t>['membantu', 'menyebut', 'unit', 'mobil', 'luka', 'cianjur', 'gempa_bumi', 'terdampak', 'pengungsi', 'kendaraan', 'gempa', 'titik', 'jawa', 'bantuan']</t>
         </is>
       </c>
       <c r="F208" t="n">
@@ -15073,7 +15073,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>['pembangunan', 'banjir', 'sungai', 'menyebut', 'bendungan', 'lahan', 'penanganan']</t>
+          <t>['menyebut', 'sungai', 'banjir', 'penanganan', 'bendungan', 'lahan', 'pembangunan']</t>
         </is>
       </c>
       <c r="F209" t="n">

--- a/what/bencana/df_result_lda.xlsx
+++ b/what/bencana/df_result_lda.xlsx
@@ -494,7 +494,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['hujan', 'cuaca', 'berpotensi', 'kencang', 'hujan_lebat', 'angin_kencang', 'petir', 'semarang', 'waspada', 'angin', 'lebat', 'bmkg', 'jawa']</t>
+          <t>['berpotensi', 'hujan', 'kencang', 'semarang', 'cuaca', 'waspada', 'angin', 'hujan_lebat', 'jawa', 'lebat', 'petir']</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -551,7 +551,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['bangunan', 'surut', 'hujan', 'banjir', 'ketinggian', 'terdampak']</t>
+          <t>['banjir', 'hujan', 'bangunan', 'ketinggian', 'dinas', 'surut', 'terdampak']</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -609,7 +609,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['membantu', 'hujan', 'penanganan', 'semarang', 'terdampak', 'waspada', 'kendaraan', 'genangan', 'upaya', 'cuaca_ekstrem', 'jakarta']</t>
+          <t>['kendaraan', 'genangan', 'upaya', 'hujan', 'jakarta', 'semarang', 'membantu', 'terdampak', 'cuaca_ekstrem']</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -677,7 +677,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['bpbd', 'menyebut', 'magnitudo', 'pusat_gempa', 'jiwa', 'tsunami', 'gempa_bumi', 'kali', 'terdampak', 'gempa_susulan', 'gempa', 'kedalaman', 'bmkg', 'jawa']</t>
+          <t>['gempa', 'gempa_bumi', 'magnitudo', 'tsunami', 'bpbd', 'gempa_susulan', 'jiwa', 'kedalaman', 'dapur', 'pusat_gempa', 'jawa', 'kali', 'bmkg', 'terdampak']</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -737,7 +737,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['pemerintah', 'mobil', 'tanah', 'bangunan', 'ditemukan', 'dibangun', 'sungai', 'gempa_bumi', 'sampah', 'pesisir', 'jawa', 'pantai', 'gempa', 'lahan', 'pembangunan', 'pasar', 'lantai']</t>
+          <t>['gempa', 'gempa_bumi', 'mobil', 'pembangunan', 'ditemukan', 'bangunan', 'pantai', 'tanah', 'sampah', 'sungai', 'dinas', 'jawa', 'pasar', 'dibangun', 'pemerintah', 'jembatan']</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['kebakaran', 'terbakar', 'kapal', 'peristiwa']</t>
+          <t>['kebakaran', 'peristiwa', 'kapal', 'terbakar']</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['magnitudo', 'pusat_gempa', 'jiwa', 'gempa_bumi', 'getaran', 'gempa', 'kedalaman', 'titik', 'bmkg']</t>
+          <t>['titik', 'gempa', 'gempa_bumi', 'jiwa', 'kedalaman', 'pusat_gempa', 'bmkg', 'getaran']</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['bpbd', 'kemarin', 'alam', 'tanah', 'hujan', 'pemerintah', 'laut', 'pohon', 'longsor', 'sampah', 'pesisir', 'waspada', 'gelombang', 'upaya', 'pantai', 'cuaca_ekstrem']</t>
+          <t>['upaya', 'longsor', 'hujan', 'pohon', 'tanah', 'sampah', 'waspada', 'laut', 'cuaca_ekstrem', 'pemerintah', 'alam']</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -1214,7 +1214,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['membantu', 'kemarin', 'hujan', 'sungai', 'kali', 'banjir', 'meluap']</t>
+          <t>['banjir', 'hujan', 'kali', 'sungai', 'membantu', 'jembatan']</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['tanah', 'hujan', 'kendaraan', 'peristiwa', 'pembangunan', 'pasar']</t>
+          <t>['pembangunan', 'peristiwa', 'kendaraan', 'hujan', 'tanah', 'pasar', 'jembatan']</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['pemerintah', 'kegiatan', 'program', 'jokowi', 'lingkungan', 'jakarta']</t>
+          <t>['program', 'jokowi', 'jakarta', 'kegiatan', 'pemerintah']</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['bpbd', 'kemarin', 'pemerintah', 'surut', 'banjir', 'laut', 'angin_kencang', 'sampah', 'terendam_banjir', 'angin', 'terdampak', 'lingkungan', 'terdampak_banjir', 'pesisir', 'pantai', 'kencang', 'cuaca_ekstrem']</t>
+          <t>['terendam_banjir', 'banjir', 'bpbd', 'pantai', 'pemerintah', 'kencang', 'sampah', 'laut', 'angin_kencang', 'surut', 'terdampak_banjir', 'angin', 'terdampak', 'cuaca_ekstrem', 'tim']</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -1512,7 +1512,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['menyebut', 'hujan', 'banjir', 'angin_kencang', 'sulsel', 'lebat', 'banjir_bandang', 'jakarta', 'cuaca', 'berpotensi', 'longsor', 'gelombang', 'cuaca_ekstrem', 'kencang', 'hujan_lebat', 'angin', 'waspada', 'potensi', 'bmkg']</t>
+          <t>['banjir', 'berpotensi', 'gelombang', 'longsor', 'hujan', 'kencang', 'jakarta', 'waspada', 'angin_kencang', 'angin', 'bmkg', 'hujan_lebat', 'banjir_bandang', 'lebat', 'cuaca_ekstrem']</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['bangunan', 'mobil', 'kebakaran', 'terbakar', 'api', 'jakarta', 'unit']</t>
+          <t>['api', 'bangunan', 'jakarta', 'terbakar', 'dinas', 'kebakaran']</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1628,7 +1628,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['bpbd', 'hujan', 'cuaca', 'laut', 'banjir', 'pohon', 'program', 'hujan_lebat', 'angin', 'lebat', 'cuaca_ekstrem', 'potensi', 'jakarta', 'pembangunan', 'tumbang', 'jawa', 'bmkg']</t>
+          <t>['program', 'banjir', 'pembangunan', 'bpbd', 'hujan', 'pohon', 'tumbang', 'jawa', 'cuaca', 'laut', 'angin', 'bmkg', 'hujan_lebat', 'lebat', 'cuaca_ekstrem']</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1698,7 +1698,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['alam', 'banjir', 'tsunami', 'gempa_bumi', 'banjir_rob', 'fenomena', 'gempa', 'titik']</t>
+          <t>['titik', 'gempa', 'banjir', 'gempa_bumi', 'tsunami', 'banjir_rob', 'alam']</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['bpbd', 'kemarin', 'mobil', 'hujan', 'jiwa', 'sungai', 'kali', 'banjir', 'hujan_lebat', 'lebat', 'peristiwa', 'unit']</t>
+          <t>['banjir', 'mobil', 'unit', 'hujan', 'kali', 'sungai', 'lebat']</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1823,7 +1823,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['membantu', 'alam', 'pemerintah', 'cianjur', 'penanganan', 'terdampak', 'pengungsi', 'gempa', 'bantuan']</t>
+          <t>['gempa', 'bantuan', 'cianjur', 'miliar', 'pengungsi', 'membantu', 'terdampak', 'pemerintah', 'alam']</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1885,7 +1885,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['magnitudo', 'pusat_gempa', 'kali', 'gempa_bumi', 'getaran', 'terdampak', 'gempa', 'kedalaman', 'bmkg', 'jawa']</t>
+          <t>['gempa', 'gempa_bumi', 'magnitudo', 'kedalaman', 'pusat_gempa', 'jawa', 'kali', 'terdampak', 'getaran']</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -2030,7 +2030,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['bpbd', 'menyebut', 'bangunan', 'pusat_gempa', 'laut', 'tsunami', 'berpotensi', 'gempa_bumi', 'getaran', 'waspada', 'gempa_susulan', 'gempa', 'kedalaman', 'bmkg', 'jawa']</t>
+          <t>['gempa', 'gempa_bumi', 'berpotensi', 'tsunami', 'bpbd', 'gempa_susulan', 'bangunan', 'kedalaman', 'pusat_gempa', 'jawa', 'waspada', 'laut', 'bmkg', 'getaran']</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -2097,7 +2097,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['hujan', 'cuaca', 'kali', 'kencang', 'angin_kencang', 'angin', 'gelombang', 'lingkungan', 'kendaraan', 'cuaca_ekstrem', 'bmkg', 'kapal', 'jawa', 'unit']</t>
+          <t>['kendaraan', 'gelombang', 'unit', 'hujan', 'kencang', 'kali', 'jawa', 'cuaca', 'angin_kencang', 'angin', 'bmkg', 'kapal', 'lingkungan', 'cuaca_ekstrem']</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -2239,7 +2239,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['menyebut', 'kemarin', 'mobil', 'surut', 'cuaca', 'sungai', 'banjir', 'ketinggian', 'genangan', 'upaya']</t>
+          <t>['banjir', 'mobil', 'tenda', 'genangan', 'upaya', 'miliar', 'ketinggian', 'sungai', 'cuaca', 'surut']</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -2306,7 +2306,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['surut', 'cuaca', 'banjir', 'terendam_banjir', 'semarang', 'arah', 'kendaraan', 'genangan', 'jawa']</t>
+          <t>['terendam_banjir', 'banjir', 'kendaraan', 'genangan', 'arah', 'semarang', 'cuaca', 'jawa', 'surut', 'jalur']</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -2368,7 +2368,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['luka', 'menyebut', 'pohon_tumbang', 'pemerintah', 'sungai', 'pohon', 'lingkungan', 'kebakaran', 'peristiwa', 'makassar', 'tumbang']</t>
+          <t>['pohon_tumbang', 'peristiwa', 'makassar', 'pohon', 'luka', 'tumbang', 'sungai', 'kebakaran', 'pemerintah']</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -2433,7 +2433,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['luka', 'damkar', 'pohon_tumbang', 'hujan', 'penanganan', 'pohon', 'angin_kencang', 'angin', 'atap', 'makassar', 'tumbang', 'kencang']</t>
+          <t>['pohon_tumbang', 'makassar', 'hujan', 'pohon', 'kencang', 'luka', 'tumbang', 'angin_kencang', 'angin', 'atap', 'damkar']</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -2493,7 +2493,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['bpbd', 'rob', 'banjir', 'laut', 'bpbd_dki', 'ketinggian', 'waspada', 'dki_jakarta', 'banjir_rob', 'pesisir', 'cuaca_ekstrem', 'potensi', 'jakarta']</t>
+          <t>['banjir', 'bpbd_dki', 'bpbd', 'ketinggian', 'jakarta', 'heru', 'pesisir', 'laut', 'pemprov_dki', 'waspada', 'banjir_rob', 'cuaca_ekstrem', 'pompa', 'rob']</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -2550,7 +2550,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['luka', 'pemerintah', 'magnitudo', 'cianjur', 'jiwa', 'ditemukan', 'gempa_bumi', 'longsor', 'kali', 'terdampak', 'gempa_susulan', 'upaya', 'gempa', 'lahan', 'titik', 'jawa', 'bmkg']</t>
+          <t>['gempa', 'gempa_bumi', 'magnitudo', 'ditemukan', 'upaya', 'longsor', 'gempa_susulan', 'jiwa', 'gempa_cianjur', 'luka', 'kali', 'jawa', 'dinas', 'bmkg', 'terdampak', 'pemerintah', 'cianjur']</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -2625,7 +2625,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['menyebut', 'cianjur', 'tanah', 'bangunan', 'penanganan', 'gempa_bumi', 'program', 'terdampak', 'upaya', 'gempa', 'jawa', 'bantuan']</t>
+          <t>['bantuan', 'gempa', 'program', 'gempa_bumi', 'upaya', 'bangunan', 'gempa_cianjur', 'tanah', 'jawa', 'dinas', 'terdampak', 'cianjur']</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -2690,7 +2690,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['kebakaran', 'ketinggian', 'kendaraan', 'penanganan']</t>
+          <t>['kebakaran', 'kendaraan', 'ketinggian', 'jembatan']</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -2755,7 +2755,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['bpbd', 'alam', 'pemerintah', 'hujan', 'cuaca', 'laut', 'kali', 'longsor', 'banjir', 'angin', 'waspada', 'peristiwa', 'fenomena', 'banjir_bandang']</t>
+          <t>['banjir', 'peristiwa', 'bpbd', 'longsor', 'hujan', 'kali', 'cuaca', 'laut', 'angin', 'waspada', 'banjir_bandang', 'pemerintah', 'alam']</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -2828,7 +2828,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['kemarin', 'sungai', 'cuaca', 'banjir', 'penanganan', 'semarang', 'pengungsi', 'cuaca_ekstrem', 'jawa']</t>
+          <t>['banjir', 'makanan', 'ganjar', 'pengungsi', 'semarang', 'cuaca', 'sungai', 'dinas', 'jawa', 'cuaca_ekstrem', 'pompa']</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['menyebut', 'pohon_tumbang', 'hujan', 'pohon', 'angin', 'kebakaran', 'peristiwa', 'jakarta', 'tumbang', 'kencang']</t>
+          <t>['pohon_tumbang', 'peristiwa', 'hujan', 'pohon', 'kencang', 'jakarta', 'tumbang', 'dinas', 'angin', 'kebakaran']</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -2961,7 +2961,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['rob', 'bangunan', 'hujan', 'cuaca', 'laut', 'banjir', 'hujan_lebat', 'angin', 'waspada', 'dki_jakarta', 'lebat', 'banjir_rob', 'potensi', 'jakarta', 'bmkg', 'jawa']</t>
+          <t>['banjir', 'hujan', 'bangunan', 'jakarta', 'jawa', 'cuaca', 'laut', 'angin', 'bmkg', 'waspada', 'pemprov_dki', 'lebat', 'hujan_lebat', 'banjir_rob', 'rob', 'potensi']</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -3061,7 +3061,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['kemarin', 'hujan', 'banjir', 'laut', 'hujan_lebat', 'angin', 'waspada', 'lebat', 'genangan', 'fenomena', 'bmkg', 'jawa']</t>
+          <t>['banjir', 'genangan', 'hujan', 'jawa', 'waspada', 'laut', 'angin', 'bmkg', 'hujan_lebat', 'lebat']</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -3126,7 +3126,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['magnitudo', 'bangunan', 'kali', 'laut', 'gempa_bumi', 'getaran', 'gempa', 'bmkg']</t>
+          <t>['gempa', 'gempa_bumi', 'magnitudo', 'bangunan', 'laut', 'bmkg', 'getaran']</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -3195,7 +3195,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['menyebut', 'damkar', 'mobil', 'jiwa', 'penanganan', 'kebakaran', 'terbakar', 'kendaraan', 'peristiwa', 'api', 'jakarta', 'unit']</t>
+          <t>['mobil', 'unit', 'api', 'jakarta', 'terbakar', 'kebakaran', 'damkar']</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -3245,7 +3245,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['kebakaran', 'titik', 'kegiatan']</t>
+          <t>['titik', 'kegiatan', 'kebakaran']</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -3310,7 +3310,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['hujan', 'angin_kencang', 'pohon', 'peristiwa', 'alam', 'terdampak', 'tumbang', 'pohon_tumbang', 'kali', 'longsor', 'gelombang', 'titik', 'kencang', 'bpbd', 'kemarin', 'jiwa', 'angin', 'waspada', 'potensi']</t>
+          <t>['titik', 'pohon_tumbang', 'peristiwa', 'gelombang', 'bpbd', 'longsor', 'jiwa', 'hujan', 'kencang', 'pohon', 'kali', 'tumbang', 'angin_kencang', 'angin', 'terdampak', 'potensi', 'alam']</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -3368,7 +3368,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['kemarin', 'pemerintah', 'surut', 'banjir', 'laut', 'sampah', 'angin', 'lingkungan', 'pesisir', 'pantai', 'cuaca_ekstrem']</t>
+          <t>['banjir', 'pantai', 'sampah', 'laut', 'tim', 'angin', 'cuaca_ekstrem', 'pemerintah']</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -3428,7 +3428,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['hujan', 'cuaca', 'angin_kencang', 'petir', 'waspada', 'angin', 'lebat', 'bmkg', 'kencang']</t>
+          <t>['hujan', 'kencang', 'cuaca', 'waspada', 'angin', 'bmkg', 'lebat', 'petir']</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -3490,7 +3490,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['magnitudo', 'cianjur', 'bangunan', 'kali', 'ditemukan', 'gempa_bumi', 'longsor', 'mengungsi', 'gempa', 'titik']</t>
+          <t>['titik', 'gempa', 'mengungsi', 'gempa_bumi', 'ditemukan', 'longsor', 'bangunan', 'kali', 'cianjur']</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -3548,7 +3548,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['membantu', 'kemarin', 'pemerintah', 'tanah', 'hujan', 'bangunan', 'angin_kencang', 'angin', 'atap', 'peristiwa', 'jakarta', 'kencang', 'bantuan']</t>
+          <t>['bantuan', 'peristiwa', 'tenda', 'makanan', 'hujan', 'kencang', 'jakarta', 'tanah', 'angin_kencang', 'angin', 'atap', 'membantu', 'pemerintah']</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -3613,7 +3613,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['rob', 'tanah', 'hujan', 'surut', 'kali', 'banjir', 'ketinggian', 'angin', 'semarang', 'gelombang', 'pantai', 'titik', 'kencang']</t>
+          <t>['titik', 'banjir', 'gelombang', 'hujan', 'ketinggian', 'pantai', 'kencang', 'tanah', 'kali', 'semarang', 'angin_kencang', 'surut', 'angin', 'rob', 'pompa']</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -3678,7 +3678,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['unit', 'bangunan', 'jiwa', 'polisi', 'pelaku', 'kebakaran', 'terbakar', 'mengungsi', 'kendaraan', 'api', 'bantuan']</t>
+          <t>['bantuan', 'mengungsi', 'polisi', 'jiwa', 'api', 'bangunan', 'terbakar', 'kebakaran', 'pelaku']</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -3746,7 +3746,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>['bpbd', 'bangunan', 'jiwa', 'sungai', 'ditemukan', 'longsor', 'makassar', 'titik', 'unit']</t>
+          <t>['titik', 'bpbd', 'unit', 'makassar', 'ditemukan', 'longsor', 'jiwa', 'bangunan', 'sungai']</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -3810,7 +3810,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>['hujan', 'cuaca', 'banjir', 'berpotensi', 'kencang', 'hujan_lebat', 'angin_kencang', 'petir', 'semarang', 'waspada', 'longsor', 'angin', 'lebat', 'bmkg', 'jawa']</t>
+          <t>['banjir', 'berpotensi', 'longsor', 'hujan', 'kencang', 'semarang', 'cuaca', 'angin_kencang', 'angin', 'waspada', 'hujan_lebat', 'jawa', 'lebat', 'petir']</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -3867,7 +3867,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['bpbd', 'damkar', 'kios', 'mobil', 'bangunan', 'polisi', 'kebakaran', 'terbakar', 'api', 'pembangunan', 'jawa', 'pasar']</t>
+          <t>['pembangunan', 'polisi', 'bpbd', 'api', 'bangunan', 'terbakar', 'jawa', 'kebakaran', 'dinas', 'pedagang', 'pasar', 'damkar']</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -3938,7 +3938,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['luka', 'menyebut', 'pohon_tumbang', 'alam', 'berpotensi', 'longsor', 'titik', 'kendaraan', 'tumbang']</t>
+          <t>['titik', 'pohon_tumbang', 'berpotensi', 'kendaraan', 'longsor', 'luka', 'tumbang', 'alam', 'jalur']</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -4015,7 +4015,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>['menyebut', 'bangunan', 'pelaku', 'peristiwa', 'laut', 'bandung', 'jawa', 'unit', 'luka', 'magnitudo', 'pusat_gempa', 'kali', 'gempa_bumi', 'gempa', 'kedalaman', 'titik', 'pemerintah', 'cianjur', 'polisi', 'bmkg']</t>
+          <t>['titik', 'polisi', 'kedalaman', 'luka', 'kali', 'pelaku', 'bangunan', 'gempa_cianjur', 'pusat_gempa', 'laut', 'bmkg', 'gempa', 'magnitudo', 'peristiwa', 'pemerintah', 'gempa_bumi', 'bandung', 'unit', 'jawa']</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -4147,7 +4147,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>['unit', 'menyebut', 'damkar', 'jiwa', 'terdampak', 'kebakaran', 'dki_jakarta', 'jakarta', 'bantuan']</t>
+          <t>['bantuan', 'unit', 'jiwa', 'jakarta', 'dapur', 'heru', 'pemprov_dki', 'kebakaran', 'terdampak']</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -4202,7 +4202,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['tanah', 'hujan', 'cuaca', 'banjir', 'dibangun', 'longsor', 'proyek', 'kedalaman']</t>
+          <t>['banjir', 'longsor', 'hujan', 'proyek', 'kedalaman', 'cuaca', 'dibangun']</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -4257,7 +4257,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['hujan', 'banjir', 'bpbd_dki', 'ketinggian', 'polisi', 'kendaraan', 'genangan', 'jakarta', 'titik']</t>
+          <t>['titik', 'banjir', 'polisi', 'bpbd_dki', 'kendaraan', 'genangan', 'hujan', 'ketinggian', 'jakarta']</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -4323,7 +4323,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>['membantu', 'hujan', 'kendaraan', 'genangan', 'tumbang']</t>
+          <t>['kendaraan', 'genangan', 'hujan', 'tumbang', 'membantu']</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -4373,7 +4373,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['bpbd', 'menyebut', 'banjir', 'kali', 'terendam_banjir', 'terdampak', 'pengungsi', 'terdampak_banjir', 'mengungsi', 'makassar', 'titik']</t>
+          <t>['titik', 'terendam_banjir', 'mengungsi', 'banjir', 'makassar', 'pengungsi', 'kali', 'terdampak_banjir', 'terdampak']</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -4442,7 +4442,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>['bpbd', 'kemarin', 'magnitudo', 'bangunan', 'pusat_gempa', 'laut', 'gempa_bumi', 'getaran', 'kali', 'arah', 'gempa_susulan', 'gempa', 'kedalaman', 'titik', 'bmkg']</t>
+          <t>['titik', 'gempa', 'magnitudo', 'gempa_bumi', 'bpbd', 'gempa_susulan', 'bangunan', 'kedalaman', 'arah', 'pusat_gempa', 'kali', 'laut', 'getaran']</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['menyebut', 'bangunan', 'pohon', 'angin_kencang', 'proyek', 'angin', 'atap', 'kendaraan', 'peristiwa', 'fenomena', 'kencang']</t>
+          <t>['kendaraan', 'peristiwa', 'bangunan', 'pohon', 'proyek', 'kencang', 'angin_kencang', 'angin', 'atap']</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -4571,7 +4571,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>['pantai']</t>
+          <t>['api', 'pantai', 'jalur']</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -4638,7 +4638,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>['kali', 'gempa', 'kedalaman', 'titik', 'bmkg']</t>
+          <t>['titik', 'gempa', 'kedalaman', 'kali', 'bmkg']</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -4689,7 +4689,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['menyebut', 'hujan', 'pohon', 'arah', 'lebat', 'laut', 'terdampak', 'kebakaran', 'jakarta', 'tumbang', 'jawa', 'pohon_tumbang', 'cuaca', 'berpotensi', 'cuaca_ekstrem', 'kencang', 'bpbd', 'hujan_lebat', 'angin', 'waspada', 'potensi']</t>
+          <t>['pohon_tumbang', 'hujan', 'arah', 'waspada', 'relawan', 'lebat', 'terdampak', 'kebakaran', 'bpbd', 'pohon', 'kencang', 'jakarta', 'cuaca', 'hujan_lebat', 'berpotensi', 'tumbang', 'jawa', 'dinas', 'angin', 'cuaca_ekstrem', 'potensi']</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -4773,7 +4773,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>['banjir', 'arah', 'banjir_rob', 'laut', 'ketinggian', 'terdampak', 'kapal', 'jawa', 'rob', 'cuaca', 'kali', 'gelombang', 'terdampak_banjir', 'cuaca_ekstrem', 'angin', 'tanggal', 'waspada', 'pesisir', 'bmkg']</t>
+          <t>['cuaca_ekstrem', 'banjir', 'gelombang', 'arah', 'kali', 'jawa', 'cuaca', 'laut', 'pesisir', 'bmkg', 'terdampak_banjir', 'angin', 'kapal', 'waspada', 'banjir_rob', 'terdampak', 'rob']</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -4853,7 +4853,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>['menyebut', 'kemarin', 'cuaca', 'angin_kencang', 'angin', 'gelombang', 'kendaraan', 'cuaca_ekstrem', 'kapal', 'kencang']</t>
+          <t>['kendaraan', 'gelombang', 'kencang', 'cuaca', 'angin_kencang', 'angin', 'kapal', 'cuaca_ekstrem']</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -4913,7 +4913,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>['unit', 'damkar', 'mobil', 'jiwa', 'penanganan', 'terdampak', 'pengungsi', 'kebakaran', 'terbakar', 'mengungsi', 'api', 'upaya', 'jakarta', 'bantuan', 'lantai']</t>
+          <t>['bantuan', 'mengungsi', 'tenda', 'makanan', 'unit', 'upaya', 'jiwa', 'api', 'miliar', 'jakarta', 'pengungsi', 'terbakar', 'pompa', 'kebakaran', 'terdampak', 'damkar']</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -5002,7 +5002,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>['alam', 'banjir', 'kali', 'gempa_bumi', 'longsor', 'jokowi', 'gempa', 'pembangunan']</t>
+          <t>['gempa', 'banjir', 'pembangunan', 'gempa_bumi', 'longsor', 'jokowi', 'kali', 'alam']</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -5076,7 +5076,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>['magnitudo', 'pusat_gempa', 'gempa_bumi', 'getaran', 'lingkungan', 'gempa', 'kedalaman', 'bmkg']</t>
+          <t>['gempa', 'gempa_bumi', 'kedalaman', 'pusat_gempa', 'bmkg', 'lingkungan', 'getaran']</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -5126,7 +5126,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>['alam', 'kedalaman', 'bangunan', 'pusat_gempa', 'tsunami', 'laut', 'berpotensi', 'gelombang', 'gempa', 'jakarta', 'titik', 'bmkg']</t>
+          <t>['titik', 'gempa', 'berpotensi', 'gelombang', 'tsunami', 'bangunan', 'kedalaman', 'jakarta', 'pusat_gempa', 'laut', 'bmkg', 'alam']</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -5196,7 +5196,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>['bpbd', 'membantu', 'hujan', 'banjir', 'terdampak_banjir', 'jawa']</t>
+          <t>['banjir', 'bpbd', 'hujan', 'jawa', 'relawan', 'terdampak_banjir', 'membantu', 'jalur']</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -5250,7 +5250,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>['tanah', 'hujan', 'banjir', 'jokowi', 'proyek', 'bendungan', 'genangan', 'pembangunan', 'jawa']</t>
+          <t>['banjir', 'pembangunan', 'genangan', 'hujan', 'bendungan', 'jokowi', 'proyek', 'tanah', 'jawa']</t>
         </is>
       </c>
       <c r="F69" t="n">
@@ -5346,7 +5346,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>['magnitudo', 'pusat_gempa', 'laut', 'gempa_bumi', 'getaran', 'gempa', 'kedalaman', 'bmkg']</t>
+          <t>['gempa', 'gempa_bumi', 'kedalaman', 'pusat_gempa', 'laut', 'bmkg', 'getaran']</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -5403,7 +5403,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['bpbd', 'damkar', 'surut', 'cuaca', 'laut', 'banjir', 'kencang', 'angin_kencang', 'angin', 'terdampak', 'pesisir', 'pantai', 'jawa']</t>
+          <t>['banjir', 'bpbd', 'pantai', 'kencang', 'jawa', 'pesisir', 'cuaca', 'laut', 'angin_kencang', 'surut', 'angin', 'terdampak', 'damkar']</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -5459,7 +5459,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>['magnitudo', 'pusat_gempa', 'jiwa', 'laut', 'gempa_bumi', 'gempa', 'kedalaman', 'titik', 'bmkg']</t>
+          <t>['titik', 'gempa', 'gempa_bumi', 'magnitudo', 'jiwa', 'kedalaman', 'pusat_gempa', 'laut', 'bmkg']</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -5507,7 +5507,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['bpbd', 'sungai', 'hujan', 'banjir', 'penanganan', 'genangan', 'lantai']</t>
+          <t>['banjir', 'bpbd', 'genangan', 'hujan', 'sungai']</t>
         </is>
       </c>
       <c r="F73" t="n">
@@ -5564,7 +5564,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>['magnitudo', 'kedalaman', 'pusat_gempa', 'tsunami', 'gempa_bumi', 'berpotensi', 'gempa', 'jakarta', 'bmkg', 'jawa']</t>
+          <t>['gempa', 'gempa_bumi', 'magnitudo', 'berpotensi', 'tsunami', 'kedalaman', 'jakarta', 'pusat_gempa', 'jawa', 'bmkg']</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -5610,7 +5610,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>['magnitudo', 'tsunami', 'laut', 'berpotensi', 'getaran', 'gempa', 'kedalaman', 'bmkg']</t>
+          <t>['gempa', 'berpotensi', 'tsunami', 'kedalaman', 'laut', 'bmkg', 'getaran']</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -5660,7 +5660,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>['bpbd', 'menyebut', 'luka', 'pemerintah', 'sungai', 'banjir', 'longsor', 'terdampak', 'sulsel', 'meluap', 'kendaraan', 'peristiwa', 'banjir_bandang', 'titik']</t>
+          <t>['titik', 'banjir', 'kendaraan', 'peristiwa', 'tenda', 'bpbd', 'longsor', 'pemerintah', 'luka', 'dinas', 'banjir_bandang', 'terdampak', 'tim']</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -5724,7 +5724,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>['rob', 'mobil', 'hujan', 'banjir', 'laut', 'ketinggian', 'hujan_lebat', 'semarang', 'lebat', 'banjir_rob']</t>
+          <t>['banjir', 'hujan', 'ketinggian', 'semarang', 'hujan_lebat', 'lebat', 'banjir_rob', 'rob']</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -5781,7 +5781,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>['membantu', 'unit', 'pemerintah', 'mobil', 'magnitudo', 'cianjur', 'gempa_bumi', 'kegiatan', 'jokowi', 'terdampak', 'mengungsi', 'peristiwa', 'gempa', 'jakarta', 'jawa', 'bantuan']</t>
+          <t>['relawan', 'terdampak', 'mobil', 'gempa_cianjur', 'tim', 'gempa', 'bantuan', 'magnitudo', 'peristiwa', 'makanan', 'jakarta', 'pemerintah', 'cianjur', 'mengungsi', 'gempa_bumi', 'unit', 'jawa', 'kegiatan', 'membantu']</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -5872,7 +5872,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>['menyebut', 'hujan', 'berpotensi', 'angin_kencang', 'hujan_lebat', 'petir', 'angin', 'atap', 'lebat', 'fenomena', 'potensi', 'bmkg', 'kencang']</t>
+          <t>['atap', 'berpotensi', 'hujan', 'kencang', 'angin_kencang', 'angin', 'bmkg', 'hujan_lebat', 'lebat', 'petir', 'potensi']</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -5930,7 +5930,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>['bpbd', 'alam', 'pohon_tumbang', 'hujan', 'pohon', 'angin', 'arah', 'tumbang', 'kencang']</t>
+          <t>['pohon_tumbang', 'hujan', 'pohon', 'kencang', 'arah', 'tumbang', 'angin_kencang', 'angin', 'tim', 'alam']</t>
         </is>
       </c>
       <c r="F80" t="n">
@@ -5980,7 +5980,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['menyebut', 'kios', 'dibangun', 'kegiatan', 'sampah', 'terdampak', 'kebakaran', 'terbakar', 'api', 'makassar', 'pembangunan', 'unit', 'pasar']</t>
+          <t>['pembangunan', 'unit', 'makassar', 'api', 'terbakar', 'sampah', 'kegiatan', 'kebakaran', 'dinas', 'pasar', 'dibangun', 'terdampak', 'pedagang']</t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -6091,7 +6091,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>['luka', 'pemerintah', 'bangunan', 'banjir', 'berpotensi', 'kendaraan', 'pembangunan']</t>
+          <t>['banjir', 'pembangunan', 'berpotensi', 'kendaraan', 'bangunan', 'luka', 'pemerintah', 'jembatan']</t>
         </is>
       </c>
       <c r="F82" t="n">
@@ -6211,7 +6211,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>['jakarta', 'tanah']</t>
+          <t>['jakarta', 'tim', 'tanah']</t>
         </is>
       </c>
       <c r="F83" t="n">
@@ -6285,7 +6285,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['bpbd', 'kemarin', 'pemerintah', 'tanah', 'hujan', 'sungai', 'kali', 'banjir', 'pohon', 'ketinggian', 'longsor', 'terendam_banjir', 'sampah', 'genangan', 'api', 'kereta', 'potensi']</t>
+          <t>['terendam_banjir', 'banjir', 'bpbd', 'genangan', 'longsor', 'hujan', 'pohon', 'ketinggian', 'kereta', 'sampah', 'kali', 'sungai', 'tanah', 'pemerintah', 'pedagang', 'jembatan']</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -6366,7 +6366,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>['menyebut', 'hujan', 'banjir', 'penanganan', 'arah', 'pelaku', 'peristiwa', 'kereta', 'mobil', 'ditemukan', 'bandung', 'proyek', 'banjir_bandang', 'jakarta', 'jawa', 'luka', 'sungai', 'kali', 'longsor', 'kendaraan', 'lahan', 'bpbd', 'kemarin', 'jiwa', 'polisi', 'pengungsi']</t>
+          <t>['polisi', 'hujan', 'luka', 'arah', 'kali', 'pelaku', 'banjir', 'mobil', 'longsor', 'kereta', 'proyek', 'tim', 'jalur', 'peristiwa', 'jakarta', 'sungai', 'kendaraan', 'bandung', 'ditemukan', 'jiwa', 'pengungsi', 'jawa', 'banjir_bandang']</t>
         </is>
       </c>
       <c r="F85" t="n">
@@ -6535,7 +6535,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>['magnitudo', 'pusat_gempa', 'gempa_bumi', 'gempa', 'kedalaman', 'bmkg', 'jawa']</t>
+          <t>['gempa', 'gempa_bumi', 'magnitudo', 'kedalaman', 'pusat_gempa', 'jawa', 'bmkg']</t>
         </is>
       </c>
       <c r="F86" t="n">
@@ -6580,7 +6580,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>['cianjur', 'bangunan', 'kali', 'penanganan', 'gempa_bumi', 'jokowi', 'terdampak', 'gempa', 'jakarta', 'pembangunan', 'titik', 'jawa', 'bantuan']</t>
+          <t>['titik', 'gempa', 'pembangunan', 'bantuan', 'gempa_bumi', 'cianjur', 'bangunan', 'jokowi', 'jakarta', 'kali', 'jawa', 'terdampak', 'jalur']</t>
         </is>
       </c>
       <c r="F87" t="n">
@@ -6635,7 +6635,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>['menyebut', 'mobil', 'surut', 'banjir', 'laut', 'ketinggian', 'semarang', 'pantai', 'titik']</t>
+          <t>['titik', 'banjir', 'mobil', 'ketinggian', 'pantai', 'semarang', 'laut', 'surut', 'pompa']</t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -6707,7 +6707,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>['bpbd', 'alam', 'jiwa', 'hujan', 'banjir', 'pengungsi', 'terdampak_banjir', 'peristiwa', 'banjir_bandang']</t>
+          <t>['banjir', 'peristiwa', 'bpbd', 'jiwa', 'hujan', 'pengungsi', 'banjir_bandang', 'terdampak_banjir', 'alam']</t>
         </is>
       </c>
       <c r="F89" t="n">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>['pemerintah', 'magnitudo', 'cianjur', 'jiwa', 'ditemukan', 'gempa_bumi', 'peristiwa', 'gempa']</t>
+          <t>['gempa', 'gempa_bumi', 'peristiwa', 'ditemukan', 'jiwa', 'pemerintah', 'cianjur']</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -6820,7 +6820,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>['banjir', 'bandung', 'arah', 'kendaraan', 'genangan', 'pasar']</t>
+          <t>['banjir', 'kendaraan', 'bandung', 'genangan', 'arah', 'pasar', 'jalur']</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -6873,7 +6873,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>['bpbd', 'damkar', 'hujan', 'sungai', 'kali', 'penanganan', 'banjir', 'program', 'terendam_banjir', 'bendungan', 'meluap', 'mengungsi', 'kedalaman', 'lantai']</t>
+          <t>['program', 'terendam_banjir', 'mengungsi', 'banjir', 'bpbd', 'hujan', 'bendungan', 'kedalaman', 'kali', 'sungai', 'relawan', 'damkar']</t>
         </is>
       </c>
       <c r="F92" t="n">
@@ -6931,7 +6931,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>['hujan', 'cuaca', 'angin_kencang', 'hujan_lebat', 'petir', 'angin', 'lebat', 'kapal', 'kencang']</t>
+          <t>['hujan', 'kencang', 'cuaca', 'angin_kencang', 'angin', 'kapal', 'hujan_lebat', 'lebat', 'petir']</t>
         </is>
       </c>
       <c r="F93" t="n">
@@ -6990,7 +6990,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>['bpbd', 'tanah', 'hujan', 'sungai', 'bpbd_dki', 'waspada', 'dki_jakarta', 'potensi', 'jakarta', 'bmkg', 'pasar']</t>
+          <t>['bpbd_dki', 'bpbd', 'hujan', 'jakarta', 'tanah', 'sungai', 'waspada', 'bmkg', 'pasar', 'potensi']</t>
         </is>
       </c>
       <c r="F94" t="n">
@@ -7058,7 +7058,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>['cuaca', 'damkar', 'kebakaran', 'api']</t>
+          <t>['kebakaran', 'cuaca', 'damkar']</t>
         </is>
       </c>
       <c r="F95" t="n">
@@ -7109,7 +7109,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>['hujan', 'angin_kencang', 'bpbd_dki', 'arah', 'sekolah', 'peristiwa', 'petir', 'terdampak', 'kebakaran', 'api', 'jakarta', 'unit', 'lantai', 'cuaca', 'kali', 'terbakar', 'kencang', 'kemarin', 'pemerintah', 'jiwa', 'angin', 'mengungsi', 'bantuan']</t>
+          <t>['hujan', 'api', 'arah', 'kali', 'terbakar', 'terdampak', 'sekolah', 'bpbd_dki', 'kebakaran', 'bantuan', 'peristiwa', 'makanan', 'kencang', 'jakarta', 'dapur', 'cuaca', 'angin_kencang', 'pemerintah', 'mengungsi', 'unit', 'jiwa', 'angin', 'petir']</t>
         </is>
       </c>
       <c r="F96" t="n">
@@ -7269,7 +7269,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>['mobil', 'hujan', 'banjir', 'laut', 'kali', 'arah', 'dki_jakarta', 'sekolah', 'kendaraan', 'genangan', 'jakarta', 'titik']</t>
+          <t>['titik', 'banjir', 'kendaraan', 'sekolah', 'genangan', 'hujan', 'jakarta', 'arah', 'kali', 'laut', 'jembatan']</t>
         </is>
       </c>
       <c r="F97" t="n">
@@ -7324,7 +7324,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>['membantu', 'alam', 'cianjur', 'penanganan', 'gempa_bumi', 'upaya', 'gempa', 'jakarta']</t>
+          <t>['gempa', 'gempa_bumi', 'upaya', 'cianjur', 'jakarta', 'relawan', 'membantu', 'alam']</t>
         </is>
       </c>
       <c r="F98" t="n">
@@ -7390,7 +7390,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>['bpbd', 'kemarin', 'jiwa', 'hujan', 'sungai', 'banjir', 'waspada', 'jawa']</t>
+          <t>['banjir', 'bpbd', 'hujan', 'jiwa', 'sungai', 'waspada', 'jawa', 'relawan']</t>
         </is>
       </c>
       <c r="F99" t="n">
@@ -7465,7 +7465,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>['menyebut', 'tanah', 'hujan', 'banjir', 'mobil', 'makassar']</t>
+          <t>['banjir', 'makassar', 'hujan', 'tanah', 'dinas']</t>
         </is>
       </c>
       <c r="F100" t="n">
@@ -7535,7 +7535,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>['kemarin', 'hujan', 'cuaca', 'tsunami', 'banjir', 'proyek', 'tanggal', 'genangan', 'pantai', 'pembangunan']</t>
+          <t>['banjir', 'pembangunan', 'tsunami', 'genangan', 'hujan', 'miliar', 'pantai', 'proyek', 'cuaca', 'dinas']</t>
         </is>
       </c>
       <c r="F101" t="n">
@@ -7612,7 +7612,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>['alam', 'ketinggian', 'kebakaran', 'terbakar', 'peristiwa', 'api', 'makassar', 'jawa']</t>
+          <t>['peristiwa', 'makassar', 'api', 'ketinggian', 'terbakar', 'jawa', 'kebakaran', 'alam']</t>
         </is>
       </c>
       <c r="F102" t="n">
@@ -7780,7 +7780,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>['mobil', 'polisi', 'angin', 'kebakaran', 'peristiwa', 'api', 'jawa', 'unit']</t>
+          <t>['polisi', 'peristiwa', 'api', 'jawa', 'angin', 'kebakaran']</t>
         </is>
       </c>
       <c r="F103" t="n">
@@ -7835,7 +7835,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>['bpbd', 'rob', 'surut', 'banjir', 'laut', 'penanganan', 'terdampak', 'terdampak_banjir', 'banjir_rob', 'pantai', 'titik', 'bantuan']</t>
+          <t>['titik', 'bantuan', 'banjir', 'bpbd', 'pantai', 'laut', 'surut', 'terdampak_banjir', 'banjir_rob', 'terdampak', 'rob']</t>
         </is>
       </c>
       <c r="F104" t="n">
@@ -7892,7 +7892,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>['bpbd', 'tanah', 'jiwa', 'hujan', 'bangunan', 'longsor', 'mengungsi', 'jawa']</t>
+          <t>['mengungsi', 'bpbd', 'longsor', 'jiwa', 'bangunan', 'hujan', 'dapur', 'tanah', 'jawa']</t>
         </is>
       </c>
       <c r="F105" t="n">
@@ -7949,7 +7949,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>['menyebut', 'jiwa', 'hujan', 'angin_kencang', 'angin', 'waspada', 'terdampak', 'atap', 'peristiwa', 'bmkg', 'kencang', 'unit']</t>
+          <t>['unit', 'jiwa', 'hujan', 'kencang', 'waspada', 'angin_kencang', 'angin', 'bmkg', 'atap', 'terdampak']</t>
         </is>
       </c>
       <c r="F106" t="n">
@@ -8009,7 +8009,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>['mobil', 'tanah', 'banjir', 'kali', 'penanganan', 'terdampak', 'banjir_bandang', 'jawa', 'unit']</t>
+          <t>['banjir', 'mobil', 'unit', 'tanah', 'kali', 'jawa', 'banjir_bandang', 'terdampak']</t>
         </is>
       </c>
       <c r="F107" t="n">
@@ -8067,7 +8067,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>['hujan', 'banjir', 'angin', 'bmkg', 'kapal', 'kencang']</t>
+          <t>['banjir', 'danau', 'hujan', 'kencang', 'angin', 'bmkg', 'kapal']</t>
         </is>
       </c>
       <c r="F108" t="n">
@@ -8123,7 +8123,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>['kemarin', 'cianjur', 'mobil', 'ditemukan', 'gempa_bumi', 'longsor', 'kendaraan', 'gempa', 'titik']</t>
+          <t>['titik', 'gempa', 'mobil', 'gempa_bumi', 'kendaraan', 'ditemukan', 'longsor', 'tim', 'cianjur']</t>
         </is>
       </c>
       <c r="F109" t="n">
@@ -8180,7 +8180,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>['hujan', 'banjir', 'arah', 'banjir_rob', 'laut', 'ketinggian', 'terdampak', 'jawa', 'rob', 'surut', 'cuaca', 'berpotensi', 'gelombang', 'genangan', 'pantai', 'angin', 'waspada', 'pesisir', 'bmkg']</t>
+          <t>['banjir', 'berpotensi', 'genangan', 'hujan', 'ketinggian', 'arah', 'jawa', 'pesisir', 'cuaca', 'laut', 'bmkg', 'angin', 'waspada', 'banjir_rob', 'terdampak', 'rob']</t>
         </is>
       </c>
       <c r="F110" t="n">
@@ -8246,7 +8246,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>['alam', 'kios', 'tanah', 'bangunan', 'cianjur', 'longsor', 'jawa', 'gempa', 'jakarta', 'kencang']</t>
+          <t>['gempa', 'longsor', 'cianjur', 'bangunan', 'kencang', 'jakarta', 'tanah', 'alam', 'jalur']</t>
         </is>
       </c>
       <c r="F111" t="n">
@@ -8365,7 +8365,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>['kemarin', 'tanah', 'dibangun', 'longsor', 'proyek', 'kendaraan', 'pembangunan', 'titik']</t>
+          <t>['titik', 'pembangunan', 'kendaraan', 'longsor', 'proyek', 'tanah', 'dinas', 'dibangun', 'jembatan']</t>
         </is>
       </c>
       <c r="F112" t="n">
@@ -8428,7 +8428,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>['kemarin', 'laut', 'angin_kencang', 'angin', 'semarang', 'gelombang', 'atap', 'mengungsi', 'genangan', 'jawa', 'kencang', 'pesisir']</t>
+          <t>['mengungsi', 'gelombang', 'genangan', 'kencang', 'semarang', 'pesisir', 'angin_kencang', 'angin', 'jawa', 'atap', 'jembatan']</t>
         </is>
       </c>
       <c r="F113" t="n">
@@ -8502,7 +8502,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>['bpbd', 'menyebut', 'pohon_tumbang', 'membantu', 'hujan', 'cuaca', 'laut', 'banjir', 'longsor', 'angin', 'waspada', 'cuaca_ekstrem', 'potensi', 'jakarta', 'tumbang', 'jawa', 'bmkg']</t>
+          <t>['pohon_tumbang', 'banjir', 'bpbd', 'longsor', 'hujan', 'tumbang', 'jawa', 'waspada', 'laut', 'angin', 'bmkg', 'relawan', 'membantu', 'cuaca_ekstrem', 'potensi']</t>
         </is>
       </c>
       <c r="F114" t="n">
@@ -8582,7 +8582,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>['bpbd', 'hujan', 'sungai', 'banjir', 'terdampak', 'terdampak_banjir', 'meluap', 'genangan', 'pembangunan']</t>
+          <t>['banjir', 'pembangunan', 'bpbd', 'genangan', 'hujan', 'sungai', 'terdampak_banjir', 'terdampak']</t>
         </is>
       </c>
       <c r="F115" t="n">
@@ -8652,7 +8652,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>['pohon_tumbang', 'hujan', 'banjir', 'titik', 'genangan', 'tumbang']</t>
+          <t>['titik', 'pohon_tumbang', 'banjir', 'genangan', 'hujan', 'tumbang']</t>
         </is>
       </c>
       <c r="F116" t="n">
@@ -8708,7 +8708,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>['bpbd', 'kemarin', 'hujan', 'sungai', 'banjir', 'ketinggian', 'terendam_banjir', 'terdampak', 'terdampak_banjir', 'meluap', 'mengungsi', 'upaya']</t>
+          <t>['terendam_banjir', 'mengungsi', 'banjir', 'bpbd', 'upaya', 'hujan', 'ketinggian', 'sungai', 'terdampak_banjir', 'terdampak']</t>
         </is>
       </c>
       <c r="F117" t="n">
@@ -8769,7 +8769,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>['membantu', 'kemarin', 'hujan', 'banjir', 'laut', 'ketinggian', 'terdampak_banjir', 'pasar']</t>
+          <t>['banjir', 'hujan', 'ketinggian', 'terdampak_banjir', 'pasar', 'membantu']</t>
         </is>
       </c>
       <c r="F118" t="n">
@@ -8827,7 +8827,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>['pemerintah', 'cianjur', 'bangunan', 'tanah', 'dibangun', 'gempa_bumi', 'longsor', 'sampah', 'lingkungan', 'pengungsi', 'gempa', 'bmkg', 'pembangunan', 'titik', 'unit']</t>
+          <t>['gempa', 'gempa_bumi', 'pembangunan', 'unit', 'longsor', 'bangunan', 'gempa_cianjur', 'pengungsi', 'tanah', 'sampah', 'bmkg', 'dibangun', 'pemerintah', 'cianjur']</t>
         </is>
       </c>
       <c r="F119" t="n">
@@ -8915,7 +8915,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>['bpbd', 'magnitudo', 'bangunan', 'pusat_gempa', 'laut', 'tsunami', 'gempa_bumi', 'terdampak', 'pesisir', 'gempa', 'potensi', 'kedalaman', 'bmkg', 'jawa', 'unit']</t>
+          <t>['gempa', 'gempa_bumi', 'magnitudo', 'tsunami', 'unit', 'bangunan', 'kedalaman', 'pusat_gempa', 'jawa', 'pesisir', 'laut', 'bmkg', 'terdampak', 'potensi']</t>
         </is>
       </c>
       <c r="F120" t="n">
@@ -8988,7 +8988,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>['alam', 'banjir', 'kegiatan', 'polisi', 'kebakaran', 'jakarta', 'titik']</t>
+          <t>['titik', 'banjir', 'polisi', 'api', 'jakarta', 'kegiatan', 'kebakaran', 'alam']</t>
         </is>
       </c>
       <c r="F121" t="n">
@@ -9071,7 +9071,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>['pohon_tumbang', 'kali', 'angin', 'terdampak', 'atap', 'fenomena', 'tumbang']</t>
+          <t>['pohon_tumbang', 'kali', 'tumbang', 'angin', 'atap', 'terdampak']</t>
         </is>
       </c>
       <c r="F122" t="n">
@@ -9130,7 +9130,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>['kemarin', 'tanah', 'hujan', 'cuaca', 'banjir']</t>
+          <t>['banjir', 'hujan', 'miliar', 'tanah', 'jembatan']</t>
         </is>
       </c>
       <c r="F123" t="n">
@@ -9206,7 +9206,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>['damkar', 'atap', 'kebakaran', 'terbakar', 'api', 'titik']</t>
+          <t>['titik', 'api', 'terbakar', 'kebakaran', 'atap', 'tim', 'damkar']</t>
         </is>
       </c>
       <c r="F124" t="n">
@@ -9268,7 +9268,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>['menyebut', 'banjir', 'penanganan', 'program', 'sampah', 'lingkungan', 'pembangunan']</t>
+          <t>['program', 'banjir', 'pembangunan', 'sampah', 'lingkungan']</t>
         </is>
       </c>
       <c r="F125" t="n">
@@ -9353,7 +9353,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>['pemerintah', 'titik', 'kali']</t>
+          <t>['titik', 'pemerintah', 'kali']</t>
         </is>
       </c>
       <c r="F126" t="n">
@@ -9426,7 +9426,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>['bangunan', 'hujan', 'banjir', 'penanganan', 'peristiwa', 'membantu', 'alam', 'ditemukan', 'banjir_bandang', 'unit', 'cuaca', 'berpotensi', 'longsor', 'cuaca_ekstrem', 'kencang', 'bpbd', 'angin', 'waspada', 'atap', 'bmkg', 'bantuan']</t>
+          <t>['hujan', 'waspada', 'alam', 'banjir', 'longsor', 'bangunan', 'bmkg', 'atap', 'bantuan', 'peristiwa', 'bpbd', 'makanan', 'kencang', 'cuaca', 'berpotensi', 'unit', 'ditemukan', 'angin', 'banjir_bandang', 'membantu', 'cuaca_ekstrem']</t>
         </is>
       </c>
       <c r="F127" t="n">
@@ -9486,7 +9486,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>['membantu', 'tanah', 'sungai', 'banjir', 'ditemukan', 'polisi', 'semarang']</t>
+          <t>['banjir', 'polisi', 'ditemukan', 'tanah', 'semarang', 'sungai', 'relawan', 'membantu', 'tim']</t>
         </is>
       </c>
       <c r="F128" t="n">
@@ -9536,7 +9536,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>['bpbd', 'kemarin', 'hujan', 'surut', 'sungai', 'banjir', 'ketinggian', 'terendam_banjir', 'arah', 'meluap', 'lebat']</t>
+          <t>['terendam_banjir', 'banjir', 'bpbd', 'hujan', 'ketinggian', 'arah', 'sungai', 'surut', 'lebat']</t>
         </is>
       </c>
       <c r="F129" t="n">
@@ -9589,7 +9589,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>['menyebut', 'pembangunan', 'banjir', 'penanganan']</t>
+          <t>['banjir', 'pembangunan', 'tim']</t>
         </is>
       </c>
       <c r="F130" t="n">
@@ -9657,7 +9657,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>['mobil', 'tanah', 'banjir', 'cuaca', 'penanganan', 'kegiatan', 'lingkungan', 'dki_jakarta', 'genangan', 'cuaca_ekstrem', 'jakarta', 'pembangunan', 'unit']</t>
+          <t>['banjir', 'pembangunan', 'unit', 'genangan', 'jakarta', 'tanah', 'heru', 'kegiatan', 'dinas', 'cuaca', 'cuaca_ekstrem']</t>
         </is>
       </c>
       <c r="F131" t="n">
@@ -9734,7 +9734,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>['kemarin', 'kios', 'polisi', 'kebakaran', 'terbakar', 'api', 'peristiwa', 'pasar']</t>
+          <t>['polisi', 'peristiwa', 'api', 'terbakar', 'kebakaran', 'pasar']</t>
         </is>
       </c>
       <c r="F132" t="n">
@@ -9786,7 +9786,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>['bpbd', 'mobil', 'tanah', 'sungai', 'ditemukan', 'longsor', 'polisi', 'kendaraan']</t>
+          <t>['mobil', 'polisi', 'bpbd', 'kendaraan', 'ditemukan', 'longsor', 'tanah', 'sungai', 'jalur']</t>
         </is>
       </c>
       <c r="F133" t="n">
@@ -9852,7 +9852,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>['bpbd', 'tanah', 'bandung', 'longsor', 'arah', 'kendaraan', 'potensi']</t>
+          <t>['kendaraan', 'bandung', 'bpbd', 'longsor', 'arah', 'tanah', 'potensi', 'jalur']</t>
         </is>
       </c>
       <c r="F134" t="n">
@@ -9915,7 +9915,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>['kemarin', 'terendam_banjir', 'banjir']</t>
+          <t>['terendam_banjir', 'banjir']</t>
         </is>
       </c>
       <c r="F135" t="n">
@@ -9979,7 +9979,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>['tanah', 'banjir', 'ketinggian', 'terendam_banjir', 'semarang', 'gelombang', 'cuaca_ekstrem', 'pantai', 'titik', 'kencang']</t>
+          <t>['titik', 'terendam_banjir', 'banjir', 'gelombang', 'ketinggian', 'kencang', 'pantai', 'tanah', 'semarang', 'cuaca_ekstrem']</t>
         </is>
       </c>
       <c r="F136" t="n">
@@ -10041,7 +10041,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>['damkar', 'mobil', 'jiwa', 'kali', 'polisi', 'kebakaran', 'terbakar', 'api', 'jawa', 'unit']</t>
+          <t>['mobil', 'polisi', 'jiwa', 'terbakar', 'kali', 'jawa', 'kebakaran', 'damkar']</t>
         </is>
       </c>
       <c r="F137" t="n">
@@ -10093,7 +10093,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>['tanah', 'jiwa', 'kali', 'kebakaran', 'terbakar', 'kendaraan', 'peristiwa', 'api', 'jakarta', 'unit']</t>
+          <t>['api', 'jakarta', 'terbakar', 'kali', 'tanah', 'kebakaran']</t>
         </is>
       </c>
       <c r="F138" t="n">
@@ -10150,7 +10150,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>['pemerintah', 'mobil', 'tanah', 'tanggal', 'sekolah', 'upaya', 'makassar', 'pembangunan', 'bantuan']</t>
+          <t>['bantuan', 'mobil', 'pembangunan', 'sekolah', 'makassar', 'upaya', 'tanah', 'pemerintah']</t>
         </is>
       </c>
       <c r="F139" t="n">
@@ -10327,7 +10327,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>['hujan', 'cuaca', 'berpotensi', 'angin_kencang', 'hujan_lebat', 'petir', 'angin', 'terdampak', 'tanggal', 'sulsel', 'lebat', 'cuaca_ekstrem', 'makassar', 'bmkg', 'kencang']</t>
+          <t>['berpotensi', 'makassar', 'hujan', 'kencang', 'angin', 'bmkg', 'hujan_lebat', 'lebat', 'petir', 'terdampak', 'cuaca_ekstrem']</t>
         </is>
       </c>
       <c r="F140" t="n">
@@ -10384,7 +10384,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>['bpbd', 'rob', 'hujan', 'cuaca', 'banjir', 'ketinggian', 'waspada', 'banjir_rob', 'cuaca_ekstrem', 'potensi', 'bmkg', 'titik']</t>
+          <t>['titik', 'cuaca_ekstrem', 'banjir', 'bpbd', 'hujan', 'ketinggian', 'cuaca', 'waspada', 'bmkg', 'banjir_rob', 'rob']</t>
         </is>
       </c>
       <c r="F141" t="n">
@@ -10440,7 +10440,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>['cianjur', 'bangunan', 'ditemukan', 'penanganan', 'gempa_bumi', 'polisi', 'upaya', 'gempa', 'jawa']</t>
+          <t>['gempa', 'gempa_bumi', 'polisi', 'ditemukan', 'upaya', 'bangunan', 'gempa_cianjur', 'jawa', 'tim', 'cianjur']</t>
         </is>
       </c>
       <c r="F142" t="n">
@@ -10524,7 +10524,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>['magnitudo', 'pusat_gempa', 'gempa_bumi', 'gempa', 'kedalaman', 'bmkg']</t>
+          <t>['gempa', 'gempa_bumi', 'magnitudo', 'kedalaman', 'pusat_gempa', 'bmkg']</t>
         </is>
       </c>
       <c r="F143" t="n">
@@ -10569,7 +10569,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>['pemerintah', 'jakarta', 'banjir']</t>
+          <t>['banjir', 'pemerintah', 'jakarta']</t>
         </is>
       </c>
       <c r="F144" t="n">
@@ -10677,7 +10677,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>['bpbd', 'alam', 'tanah', 'hujan', 'jiwa', 'banjir', 'longsor', 'hujan_lebat', 'terendam_banjir', 'angin', 'waspada', 'meluap', 'lebat', 'peristiwa', 'cuaca_ekstrem', 'bmkg', 'titik', 'kencang']</t>
+          <t>['titik', 'terendam_banjir', 'banjir', 'bpbd', 'longsor', 'jiwa', 'hujan', 'kencang', 'waspada', 'angin_kencang', 'angin', 'bmkg', 'hujan_lebat', 'lebat', 'cuaca_ekstrem', 'alam']</t>
         </is>
       </c>
       <c r="F145" t="n">
@@ -10775,7 +10775,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>['bpbd', 'rob', 'menyebut', 'membantu', 'hujan', 'jiwa', 'sungai', 'penanganan', 'banjir', 'ketinggian', 'terdampak_banjir', 'mengungsi', 'banjir_rob', 'genangan', 'pembangunan', 'titik', 'jawa']</t>
+          <t>['mengungsi', 'pembangunan', 'banjir', 'bpbd', 'genangan', 'jiwa', 'hujan', 'ketinggian', 'sungai', 'jawa', 'terdampak_banjir', 'membantu', 'banjir_rob', 'rob', 'pompa']</t>
         </is>
       </c>
       <c r="F146" t="n">
@@ -10844,7 +10844,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>['magnitudo', 'pusat_gempa', 'gempa_bumi', 'gempa', 'kedalaman', 'bmkg', 'jawa']</t>
+          <t>['gempa', 'gempa_bumi', 'magnitudo', 'kedalaman', 'pusat_gempa', 'jawa', 'bmkg']</t>
         </is>
       </c>
       <c r="F147" t="n">
@@ -10889,7 +10889,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>['bpbd', 'luka', 'pohon_tumbang', 'jiwa', 'hujan', 'cuaca', 'pohon', 'angin_kencang', 'angin', 'waspada', 'atap', 'tumbang', 'kencang']</t>
+          <t>['pohon_tumbang', 'jiwa', 'hujan', 'pohon', 'kencang', 'luka', 'tumbang', 'cuaca', 'angin_kencang', 'angin', 'waspada', 'atap']</t>
         </is>
       </c>
       <c r="F148" t="n">
@@ -10950,7 +10950,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>['magnitudo', 'jiwa', 'kali', 'tsunami', 'berpotensi', 'laut', 'gempa', 'kedalaman', 'titik', 'bmkg']</t>
+          <t>['titik', 'gempa', 'magnitudo', 'berpotensi', 'tsunami', 'jiwa', 'kedalaman', 'kali', 'laut', 'bmkg']</t>
         </is>
       </c>
       <c r="F149" t="n">
@@ -11001,7 +11001,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>['pemerintah', 'kios', 'penanganan', 'dibangun', 'polisi', 'kebakaran', 'terbakar', 'api', 'unit', 'pasar']</t>
+          <t>['polisi', 'unit', 'api', 'pemerintah', 'terbakar', 'kebakaran', 'dinas', 'pasar', 'dibangun', 'tim', 'pedagang']</t>
         </is>
       </c>
       <c r="F150" t="n">
@@ -11066,7 +11066,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>['bpbd', 'menyebut', 'kemarin', 'hujan', 'sungai', 'ditemukan', 'banjir', 'longsor', 'banjir_bandang', 'jawa']</t>
+          <t>['banjir', 'ditemukan', 'longsor', 'hujan', 'sungai', 'jawa', 'banjir_bandang']</t>
         </is>
       </c>
       <c r="F151" t="n">
@@ -11142,7 +11142,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>['hujan', 'banjir', 'angin_kencang', 'sulsel', 'lebat', 'laut', 'ketinggian', 'makassar', 'tumbang', 'pohon_tumbang', 'cuaca', 'berpotensi', 'longsor', 'gelombang', 'genangan', 'cuaca_ekstrem', 'kencang', 'hujan_lebat', 'angin', 'waspada', 'tanggal', 'potensi', 'bmkg']</t>
+          <t>['pohon_tumbang', 'genangan', 'hujan', 'ketinggian', 'waspada', 'lebat', 'banjir', 'gelombang', 'makassar', 'longsor', 'laut', 'bmkg', 'kencang', 'cuaca', 'angin_kencang', 'hujan_lebat', 'berpotensi', 'tumbang', 'angin', 'cuaca_ekstrem', 'potensi']</t>
         </is>
       </c>
       <c r="F152" t="n">
@@ -11238,7 +11238,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>['rob', 'hujan', 'cuaca', 'banjir', 'kencang', 'angin', 'gelombang', 'terdampak', 'terdampak_banjir', 'mengungsi', 'banjir_rob', 'pesisir', 'cuaca_ekstrem', 'bmkg', 'kapal', 'jawa']</t>
+          <t>['mengungsi', 'banjir', 'gelombang', 'hujan', 'kencang', 'jawa', 'cuaca', 'pesisir', 'angin', 'bmkg', 'terdampak_banjir', 'kapal', 'banjir_rob', 'terdampak', 'cuaca_ekstrem', 'rob']</t>
         </is>
       </c>
       <c r="F153" t="n">
@@ -11299,7 +11299,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>['kebakaran', 'damkar', 'mobil']</t>
+          <t>['kebakaran', 'mobil', 'tim', 'damkar']</t>
         </is>
       </c>
       <c r="F154" t="n">
@@ -11354,7 +11354,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>['hujan', 'banjir', 'penanganan', 'semarang', 'kereta', 'laut', 'terdampak', 'api', 'upaya', 'jawa', 'unit', 'gelombang', 'terdampak_banjir', 'pantai', 'titik', 'bpbd', 'jiwa', 'pengungsi', 'mengungsi']</t>
+          <t>['titik', 'mengungsi', 'banjir', 'bpbd', 'unit', 'upaya', 'jiwa', 'hujan', 'pantai', 'kereta', 'pengungsi', 'dapur', 'semarang', 'jawa', 'terdampak_banjir', 'terdampak', 'tim', 'pompa']</t>
         </is>
       </c>
       <c r="F155" t="n">
@@ -11470,7 +11470,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>['bpbd', 'pohon_tumbang', 'tanah', 'hujan', 'sungai', 'laut', 'banjir', 'longsor', 'hujan_lebat', 'angin', 'lebat', 'potensi', 'jakarta', 'tumbang', 'jawa']</t>
+          <t>['pohon_tumbang', 'banjir', 'bpbd', 'longsor', 'hujan', 'tanah', 'tumbang', 'sungai', 'jawa', 'laut', 'angin', 'hujan_lebat', 'lebat']</t>
         </is>
       </c>
       <c r="F156" t="n">
@@ -11541,7 +11541,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>['damkar', 'kemarin', 'alam', 'ditemukan', 'kebakaran']</t>
+          <t>['kebakaran', 'alam', 'damkar', 'ditemukan']</t>
         </is>
       </c>
       <c r="F157" t="n">
@@ -11606,7 +11606,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>['jiwa', 'banjir', 'ketinggian', 'terendam_banjir', 'terdampak', 'meluap', 'mengungsi']</t>
+          <t>['terendam_banjir', 'mengungsi', 'banjir', 'danau', 'jiwa', 'ketinggian', 'terdampak']</t>
         </is>
       </c>
       <c r="F158" t="n">
@@ -11667,7 +11667,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>['bpbd', 'luka', 'pemerintah', 'sungai', 'banjir', 'longsor', 'terdampak', 'meluap', 'banjir_bandang', 'titik']</t>
+          <t>['titik', 'banjir', 'tenda', 'longsor', 'luka', 'dinas', 'banjir_bandang', 'terdampak', 'pemerintah']</t>
         </is>
       </c>
       <c r="F159" t="n">
@@ -11730,7 +11730,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>['membantu', 'unit', 'bangunan', 'atap', 'kebakaran', 'terbakar', 'api', 'bantuan', 'lantai']</t>
+          <t>['bantuan', 'unit', 'api', 'bangunan', 'terbakar', 'dapur', 'kebakaran', 'atap', 'membantu', 'tim']</t>
         </is>
       </c>
       <c r="F160" t="n">
@@ -11793,7 +11793,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>['luka', 'kemarin', 'cianjur', 'tanah', 'gempa_bumi', 'bandung', 'mengungsi', 'upaya', 'gempa', 'potensi', 'unit']</t>
+          <t>['gempa', 'mengungsi', 'gempa_bumi', 'bandung', 'unit', 'upaya', 'gempa_cianjur', 'luka', 'tanah', 'potensi', 'cianjur']</t>
         </is>
       </c>
       <c r="F161" t="n">
@@ -11859,7 +11859,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>['hujan', 'cuaca', 'sungai', 'banjir', 'pohon', 'gelombang', 'lingkungan', 'peristiwa', 'cuaca_ekstrem']</t>
+          <t>['banjir', 'peristiwa', 'gelombang', 'hujan', 'pohon', 'sungai', 'cuaca', 'lingkungan', 'cuaca_ekstrem']</t>
         </is>
       </c>
       <c r="F162" t="n">
@@ -11954,7 +11954,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>['alam', 'banjir', 'polisi', 'tanggal', 'peristiwa', 'bantuan']</t>
+          <t>['bantuan', 'banjir', 'polisi', 'peristiwa', 'alam']</t>
         </is>
       </c>
       <c r="F163" t="n">
@@ -12018,7 +12018,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>['rob', 'hujan', 'banjir', 'laut', 'dibangun', 'kali', 'petir', 'semarang', 'sekolah', 'banjir_rob', 'jawa']</t>
+          <t>['banjir', 'sekolah', 'hujan', 'dibangun', 'kali', 'semarang', 'jawa', 'laut', 'petir', 'banjir_rob', 'rob', 'pedagang']</t>
         </is>
       </c>
       <c r="F164" t="n">
@@ -12077,7 +12077,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>['kemarin', 'hujan', 'banjir', 'ketinggian', 'terendam_banjir', 'atap', 'terdampak_banjir', 'lebat', 'kendaraan', 'mengungsi', 'genangan', 'jawa', 'bantuan']</t>
+          <t>['bantuan', 'terendam_banjir', 'atap', 'mengungsi', 'banjir', 'kendaraan', 'genangan', 'hujan', 'ketinggian', 'jawa', 'terdampak_banjir', 'lebat']</t>
         </is>
       </c>
       <c r="F165" t="n">
@@ -12143,7 +12143,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>['damkar', 'sungai', 'kali', 'kebakaran', 'peristiwa', 'jakarta', 'unit']</t>
+          <t>['peristiwa', 'unit', 'jakarta', 'kali', 'sungai', 'kebakaran', 'tim', 'damkar']</t>
         </is>
       </c>
       <c r="F166" t="n">
@@ -12208,7 +12208,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>['menyebut', 'pohon_tumbang', 'cuaca', 'banjir', 'pohon', 'angin_kencang', 'makassar', 'angin', 'tanggal', 'lingkungan', 'genangan', 'potensi', 'tumbang', 'kencang']</t>
+          <t>['pohon_tumbang', 'banjir', 'makassar', 'genangan', 'pohon', 'kencang', 'tumbang', 'cuaca', 'angin_kencang', 'angin', 'potensi']</t>
         </is>
       </c>
       <c r="F167" t="n">
@@ -12263,7 +12263,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>['magnitudo', 'pusat_gempa', 'tsunami', 'laut', 'gempa_bumi', 'getaran', 'arah', 'gelombang', 'gempa', 'kedalaman', 'bmkg']</t>
+          <t>['gempa', 'gempa_bumi', 'magnitudo', 'gelombang', 'tsunami', 'kedalaman', 'arah', 'pusat_gempa', 'laut', 'bmkg', 'getaran']</t>
         </is>
       </c>
       <c r="F168" t="n">
@@ -12318,7 +12318,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>['hujan', 'sungai', 'ditemukan', 'banjir', 'terdampak_banjir', 'meluap', 'banjir_bandang', 'titik', 'jawa']</t>
+          <t>['titik', 'banjir', 'ditemukan', 'hujan', 'jawa', 'banjir_bandang', 'terdampak_banjir', 'jembatan']</t>
         </is>
       </c>
       <c r="F169" t="n">
@@ -12378,7 +12378,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>['menyebut', 'hujan', 'banjir', 'angin_kencang', 'sulsel', 'lebat', 'banjir_bandang', 'jakarta', 'cuaca', 'berpotensi', 'longsor', 'gelombang', 'cuaca_ekstrem', 'kencang', 'hujan_lebat', 'angin', 'waspada', 'potensi', 'bmkg']</t>
+          <t>['banjir', 'berpotensi', 'gelombang', 'longsor', 'hujan', 'kencang', 'jakarta', 'waspada', 'angin_kencang', 'angin', 'bmkg', 'hujan_lebat', 'banjir_bandang', 'lebat', 'cuaca_ekstrem']</t>
         </is>
       </c>
       <c r="F170" t="n">
@@ -12438,7 +12438,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>['laut', 'pasar', 'kali', 'titik', 'angin', 'api', 'pesisir', 'pantai', 'kapal', 'kencang', 'lantai']</t>
+          <t>['titik', 'api', 'pantai', 'kencang', 'kali', 'pesisir', 'laut', 'angin', 'kapal', 'pasar', 'jembatan']</t>
         </is>
       </c>
       <c r="F171" t="n">
@@ -12555,7 +12555,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>['bpbd', 'magnitudo', 'kali', 'gempa_bumi', 'getaran', 'tanggal', 'gempa_susulan', 'gempa', 'kedalaman']</t>
+          <t>['gempa', 'gempa_bumi', 'bpbd', 'gempa_susulan', 'kedalaman', 'kali', 'getaran']</t>
         </is>
       </c>
       <c r="F172" t="n">
@@ -12667,7 +12667,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>['kios', 'jiwa', 'kebakaran', 'terbakar', 'peristiwa', 'pasar']</t>
+          <t>['miliar', 'terbakar', 'kebakaran', 'dinas', 'pasar']</t>
         </is>
       </c>
       <c r="F173" t="n">
@@ -12716,7 +12716,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>['bpbd', 'jiwa', 'angin', 'terdampak', 'atap', 'mengungsi', 'peristiwa', 'unit']</t>
+          <t>['mengungsi', 'peristiwa', 'bpbd', 'unit', 'jiwa', 'dinas', 'angin', 'atap', 'terdampak']</t>
         </is>
       </c>
       <c r="F174" t="n">
@@ -12769,7 +12769,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>['bpbd', 'damkar', 'hujan', 'surut', 'banjir', 'bpbd_dki', 'ketinggian', 'terendam_banjir', 'angin', 'dki_jakarta', 'genangan', 'potensi', 'jakarta', 'titik', 'kencang']</t>
+          <t>['titik', 'terendam_banjir', 'banjir', 'bpbd_dki', 'bpbd', 'genangan', 'hujan', 'ketinggian', 'jakarta', 'kencang', 'dinas', 'surut', 'angin', 'potensi', 'damkar']</t>
         </is>
       </c>
       <c r="F175" t="n">
@@ -12836,7 +12836,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>['hujan', 'sungai', 'ditemukan', 'kali', 'kegiatan', 'banjir', 'sampah', 'bandung', 'terdampak', 'lingkungan', 'lebat']</t>
+          <t>['banjir', 'bandung', 'ditemukan', 'hujan', 'lingkungan', 'sampah', 'kali', 'sungai', 'kegiatan', 'lebat', 'terdampak']</t>
         </is>
       </c>
       <c r="F176" t="n">
@@ -12950,7 +12950,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>['bpbd', 'jiwa', 'banjir', 'kali', 'terdampak', 'terdampak_banjir', 'mengungsi', 'makassar', 'unit']</t>
+          <t>['mengungsi', 'banjir', 'unit', 'makassar', 'jiwa', 'kali', 'terdampak_banjir', 'terdampak']</t>
         </is>
       </c>
       <c r="F177" t="n">
@@ -13008,7 +13008,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>['membantu', 'kemarin', 'banjir', 'terendam_banjir', 'bantuan']</t>
+          <t>['bantuan', 'terendam_banjir', 'banjir', 'tenda', 'makanan', 'dapur', 'membantu']</t>
         </is>
       </c>
       <c r="F178" t="n">
@@ -13069,7 +13069,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>['bpbd', 'menyebut', 'membantu', 'hujan', 'banjir', 'penanganan', 'terendam_banjir', 'terdampak_banjir', 'kendaraan', 'titik']</t>
+          <t>['titik', 'terendam_banjir', 'banjir', 'kendaraan', 'bpbd', 'hujan', 'terdampak_banjir', 'membantu']</t>
         </is>
       </c>
       <c r="F179" t="n">
@@ -13126,7 +13126,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>['bpbd', 'jiwa', 'banjir', 'angin_kencang', 'longsor', 'angin', 'waspada', 'terdampak', 'atap', 'peristiwa', 'cuaca_ekstrem', 'kencang', 'bantuan']</t>
+          <t>['bantuan', 'banjir', 'peristiwa', 'tenda', 'longsor', 'jiwa', 'kencang', 'waspada', 'angin_kencang', 'angin', 'atap', 'terdampak', 'cuaca_ekstrem']</t>
         </is>
       </c>
       <c r="F180" t="n">
@@ -13186,7 +13186,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>['kemarin', 'pemerintah', 'kios', 'hujan', 'cuaca', 'kali', 'banjir', 'terendam_banjir', 'meluap', 'lebat', 'banjir_rob', 'peristiwa', 'genangan', 'pantai', 'pembangunan']</t>
+          <t>['terendam_banjir', 'pembangunan', 'peristiwa', 'banjir', 'genangan', 'hujan', 'pantai', 'kali', 'cuaca', 'lebat', 'banjir_rob', 'pemerintah', 'pedagang']</t>
         </is>
       </c>
       <c r="F181" t="n">
@@ -13254,7 +13254,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>['membantu', 'kemarin', 'alam', 'cianjur', 'ditemukan', 'penanganan', 'gempa_bumi', 'terdampak', 'pengungsi', 'gempa', 'jawa', 'bantuan']</t>
+          <t>['gempa', 'bantuan', 'gempa_bumi', 'tenda', 'makanan', 'ditemukan', 'cianjur', 'pengungsi', 'membantu', 'terdampak', 'jembatan', 'alam']</t>
         </is>
       </c>
       <c r="F182" t="n">
@@ -13321,7 +13321,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>['bpbd', 'hujan', 'surut', 'sungai', 'banjir', 'ketinggian', 'lingkungan', 'terdampak_banjir', 'meluap', 'bantuan']</t>
+          <t>['bantuan', 'banjir', 'bpbd', 'makanan', 'hujan', 'ketinggian', 'dapur', 'sungai', 'surut', 'terdampak_banjir', 'relawan', 'lingkungan']</t>
         </is>
       </c>
       <c r="F183" t="n">
@@ -13385,7 +13385,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>['kemarin', 'pemerintah', 'banjir', 'berpotensi', 'bpbd_dki', 'terdampak', 'dki_jakarta', 'cuaca_ekstrem', 'potensi', 'jakarta']</t>
+          <t>['banjir', 'berpotensi', 'bpbd_dki', 'jakarta', 'heru', 'pemprov_dki', 'terdampak', 'cuaca_ekstrem', 'pemerintah']</t>
         </is>
       </c>
       <c r="F184" t="n">
@@ -13467,7 +13467,7 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>['surut', 'hujan', 'banjir', 'ketinggian', 'polisi', 'semarang', 'terdampak', 'genangan', 'titik']</t>
+          <t>['titik', 'banjir', 'polisi', 'genangan', 'hujan', 'ketinggian', 'semarang', 'surut', 'terdampak', 'jalur']</t>
         </is>
       </c>
       <c r="F185" t="n">
@@ -13524,7 +13524,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>['luka', 'damkar', 'mobil', 'jiwa', 'angin', 'kebakaran', 'terbakar', 'api', 'jakarta']</t>
+          <t>['jiwa', 'api', 'jakarta', 'luka', 'terbakar', 'angin', 'kebakaran']</t>
         </is>
       </c>
       <c r="F186" t="n">
@@ -13575,7 +13575,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>['menyebut', 'banjir', 'semarang', 'arah', 'genangan', 'api', 'kereta', 'jakarta', 'jawa', 'pasar']</t>
+          <t>['banjir', 'genangan', 'kereta', 'jakarta', 'arah', 'semarang', 'jawa', 'pasar', 'jalur']</t>
         </is>
       </c>
       <c r="F187" t="n">
@@ -13636,7 +13636,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>['bpbd', 'kemarin', 'tanah', 'hujan', 'longsor', 'ketinggian', 'peristiwa']</t>
+          <t>['peristiwa', 'bpbd', 'longsor', 'hujan', 'ketinggian', 'tanah']</t>
         </is>
       </c>
       <c r="F188" t="n">
@@ -13695,7 +13695,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>['kebakaran', 'api', 'pasar']</t>
+          <t>['pasar', 'kebakaran', 'pedagang', 'api']</t>
         </is>
       </c>
       <c r="F189" t="n">
@@ -13752,7 +13752,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>['cianjur', 'kali', 'gempa_bumi', 'kegiatan', 'terdampak', 'kendaraan', 'peristiwa', 'gempa', 'titik', 'bantuan']</t>
+          <t>['titik', 'bantuan', 'gempa', 'peristiwa', 'gempa_bumi', 'kendaraan', 'kali', 'kegiatan', 'terdampak', 'cianjur']</t>
         </is>
       </c>
       <c r="F190" t="n">
@@ -13841,7 +13841,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>['bpbd', 'damkar', 'membantu', 'mobil', 'kali', 'kebakaran', 'terbakar', 'kendaraan', 'api', 'titik', 'unit', 'pasar']</t>
+          <t>['titik', 'bpbd', 'api', 'terbakar', 'kali', 'kebakaran', 'membantu', 'pasar']</t>
         </is>
       </c>
       <c r="F191" t="n">
@@ -13898,7 +13898,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>['bpbd', 'hujan', 'banjir', 'kali', 'bpbd_dki', 'waspada', 'terdampak', 'lingkungan', 'dki_jakarta', 'lebat', 'genangan', 'potensi', 'jakarta', 'titik', 'bantuan']</t>
+          <t>['titik', 'bantuan', 'banjir', 'bpbd_dki', 'bpbd', 'genangan', 'hujan', 'lingkungan', 'jakarta', 'kali', 'waspada', 'lebat', 'terdampak']</t>
         </is>
       </c>
       <c r="F192" t="n">
@@ -13974,7 +13974,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>['kali', 'laut', 'waspada', 'pesisir', 'pantai']</t>
+          <t>['kali', 'waspada', 'laut', 'pantai']</t>
         </is>
       </c>
       <c r="F193" t="n">
@@ -14042,7 +14042,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>['hujan', 'banjir', 'angin_kencang', 'sulsel', 'lebat', 'ketinggian', 'petir', 'terdampak', 'makassar', 'tumbang', 'luka', 'pohon_tumbang', 'sungai', 'cuaca', 'berpotensi', 'terdampak_banjir', 'cuaca_ekstrem', 'titik', 'kencang', 'bpbd', 'jiwa', 'angin', 'waspada', 'tanggal', 'mengungsi', 'bmkg', 'bantuan']</t>
+          <t>['pohon_tumbang', 'hujan', 'ketinggian', 'luka', 'waspada', 'lebat', 'terdampak', 'banjir', 'makassar', 'bmkg', 'bantuan', 'bpbd', 'kencang', 'sungai', 'angin_kencang', 'terdampak_banjir', 'mengungsi', 'berpotensi', 'jiwa', 'tumbang', 'angin', 'petir', 'cuaca_ekstrem']</t>
         </is>
       </c>
       <c r="F194" t="n">
@@ -14123,7 +14123,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>['bpbd', 'damkar', 'hujan', 'jiwa', 'cuaca', 'ditemukan', 'longsor', 'hujan_lebat', 'polisi', 'lebat', 'peristiwa', 'unit']</t>
+          <t>['polisi', 'bpbd', 'unit', 'ditemukan', 'longsor', 'hujan', 'dapur', 'cuaca', 'dinas', 'hujan_lebat', 'lebat', 'damkar']</t>
         </is>
       </c>
       <c r="F195" t="n">
@@ -14187,7 +14187,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>['angin_kencang', 'alam', 'angin', 'kencang']</t>
+          <t>['kencang', 'angin_kencang', 'angin', 'alam']</t>
         </is>
       </c>
       <c r="F196" t="n">
@@ -14258,7 +14258,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>['menyebut', 'kemarin', 'mobil', 'bandung', 'waspada', 'kebakaran', 'titik', 'bantuan']</t>
+          <t>['titik', 'bantuan', 'mobil', 'bandung', 'waspada', 'kebakaran', 'jalur']</t>
         </is>
       </c>
       <c r="F197" t="n">
@@ -14323,7 +14323,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>['pelaku', 'banjir', 'jawa', 'kali']</t>
+          <t>['banjir', 'kali', 'jawa', 'pelaku', 'pedagang']</t>
         </is>
       </c>
       <c r="F198" t="n">
@@ -14384,7 +14384,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>['damkar', 'mobil', 'penanganan', 'kebakaran', 'dki_jakarta', 'kendaraan', 'api', 'jakarta', 'unit']</t>
+          <t>['kendaraan', 'mobil', 'unit', 'jakarta', 'kebakaran', 'damkar']</t>
         </is>
       </c>
       <c r="F199" t="n">
@@ -14432,7 +14432,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>['bpbd', 'alam', 'luka', 'tanah', 'hujan', 'sungai', 'banjir', 'longsor', 'meluap', 'upaya', 'banjir_bandang', 'titik']</t>
+          <t>['titik', 'banjir', 'bpbd', 'upaya', 'longsor', 'hujan', 'luka', 'tanah', 'banjir_bandang', 'alam']</t>
         </is>
       </c>
       <c r="F200" t="n">
@@ -14495,7 +14495,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>['kemarin', 'hujan', 'sungai', 'banjir', 'berpotensi', 'angin_kencang', 'hujan_lebat', 'longsor', 'angin', 'waspada', 'gelombang', 'lebat', 'pesisir', 'potensi', 'bmkg', 'kapal', 'kencang']</t>
+          <t>['banjir', 'berpotensi', 'gelombang', 'danau', 'longsor', 'hujan', 'kencang', 'sungai', 'pesisir', 'angin_kencang', 'angin', 'bmkg', 'waspada', 'kapal', 'lebat', 'hujan_lebat']</t>
         </is>
       </c>
       <c r="F201" t="n">
@@ -14551,7 +14551,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>['banjir', 'kali', 'tsunami', 'gempa_bumi', 'banjir_rob', 'peristiwa', 'fenomena', 'gempa', 'titik']</t>
+          <t>['titik', 'gempa', 'banjir', 'peristiwa', 'tsunami', 'gempa_bumi', 'kali', 'banjir_rob']</t>
         </is>
       </c>
       <c r="F202" t="n">
@@ -14617,7 +14617,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>['menyebut', 'magnitudo', 'bangunan', 'pusat_gempa', 'laut', 'tsunami', 'berpotensi', 'gempa_bumi', 'getaran', 'arah', 'gempa_susulan', 'gempa', 'kedalaman', 'titik', 'bmkg']</t>
+          <t>['titik', 'gempa', 'magnitudo', 'berpotensi', 'tsunami', 'gempa_bumi', 'gempa_susulan', 'bangunan', 'kedalaman', 'arah', 'pusat_gempa', 'laut', 'bmkg', 'getaran']</t>
         </is>
       </c>
       <c r="F203" t="n">
@@ -14678,7 +14678,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>['alam', 'kali', 'bandung', 'kegiatan', 'gempa']</t>
+          <t>['gempa', 'bandung', 'makanan', 'kali', 'kegiatan', 'alam']</t>
         </is>
       </c>
       <c r="F204" t="n">
@@ -14771,7 +14771,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>['bpbd', 'membantu', 'pemerintah', 'cuaca', 'laut', 'banjir', 'longsor', 'angin', 'waspada', 'gelombang', 'mengungsi', 'pesisir', 'makassar', 'kencang', 'bantuan']</t>
+          <t>['bantuan', 'mengungsi', 'banjir', 'gelombang', 'bpbd', 'makassar', 'longsor', 'kencang', 'pesisir', 'laut', 'angin', 'waspada', 'membantu', 'pemerintah']</t>
         </is>
       </c>
       <c r="F205" t="n">
@@ -14837,7 +14837,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>['cianjur', 'tanah', 'kegiatan', 'gempa_bumi', 'bandung', 'gempa', 'titik', 'bantuan']</t>
+          <t>['titik', 'bantuan', 'gempa', 'gempa_bumi', 'bandung', 'tanah', 'kegiatan', 'relawan', 'tim', 'cianjur']</t>
         </is>
       </c>
       <c r="F206" t="n">
@@ -14935,7 +14935,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>['menyebut', 'hujan', 'banjir', 'angin_kencang', 'banjir_rob', 'laut', 'jawa', 'surut', 'cuaca', 'terendam_banjir', 'genangan', 'cuaca_ekstrem', 'titik', 'kencang', 'bpbd', 'kemarin', 'pemerintah', 'angin', 'waspada', 'tanggal', 'pesisir', 'potensi', 'bmkg', 'bantuan']</t>
+          <t>['titik', 'terendam_banjir', 'genangan', 'hujan', 'waspada', 'banjir', 'laut', 'surut', 'bmkg', 'bantuan', 'bpbd', 'kencang', 'pesisir', 'angin_kencang', 'cuaca', 'rob', 'pemerintah', 'jawa', 'angin', 'cuaca_ekstrem', 'potensi']</t>
         </is>
       </c>
       <c r="F207" t="n">
@@ -14999,7 +14999,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>['membantu', 'menyebut', 'unit', 'mobil', 'luka', 'cianjur', 'gempa_bumi', 'terdampak', 'pengungsi', 'kendaraan', 'gempa', 'titik', 'jawa', 'bantuan']</t>
+          <t>['gempa', 'bantuan', 'mobil', 'gempa_bumi', 'unit', 'gempa_cianjur', 'luka', 'pengungsi', 'relawan', 'membantu', 'terdampak', 'tim', 'cianjur']</t>
         </is>
       </c>
       <c r="F208" t="n">
@@ -15073,7 +15073,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>['menyebut', 'sungai', 'banjir', 'penanganan', 'bendungan', 'lahan', 'pembangunan']</t>
+          <t>['sungai', 'pembangunan', 'banjir', 'bendungan']</t>
         </is>
       </c>
       <c r="F209" t="n">
